--- a/Base/TileMap/Formatting/Level4.xlsx
+++ b/Base/TileMap/Formatting/Level4.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7935"/>
   </bookViews>
   <sheets>
-    <sheet name="Level3" sheetId="1" r:id="rId1"/>
+    <sheet name="Level4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -164,7 +164,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,6 +350,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -511,9 +523,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -835,20 +849,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE51"/>
+  <dimension ref="A1:BE56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AD1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BB9" sqref="BB9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="34" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="4.28515625" customWidth="1"/>
-    <col min="36" max="57" width="4.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="57" width="2.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:57" x14ac:dyDescent="0.25">
@@ -1246,8 +1255,8 @@
       <c r="P3">
         <v>0</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
+      <c r="Q3" s="3">
+        <v>22</v>
       </c>
       <c r="R3">
         <v>0</v>
@@ -1294,8 +1303,8 @@
       <c r="AF3">
         <v>0</v>
       </c>
-      <c r="AG3">
-        <v>0</v>
+      <c r="AG3" s="3">
+        <v>22</v>
       </c>
       <c r="AH3">
         <v>0</v>
@@ -1363,8 +1372,8 @@
       <c r="BC3">
         <v>0</v>
       </c>
-      <c r="BD3">
-        <v>0</v>
+      <c r="BD3" s="3">
+        <v>22</v>
       </c>
       <c r="BE3" s="1">
         <v>1</v>
@@ -1375,7 +1384,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1720,164 +1729,164 @@
       <c r="A6" s="1">
         <v>1</v>
       </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>0</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-      <c r="AJ6">
-        <v>0</v>
-      </c>
-      <c r="AK6">
-        <v>0</v>
-      </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
-        <v>0</v>
-      </c>
-      <c r="AN6">
-        <v>0</v>
-      </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
-        <v>0</v>
-      </c>
-      <c r="AR6">
-        <v>0</v>
-      </c>
-      <c r="AS6">
-        <v>0</v>
-      </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
-        <v>0</v>
-      </c>
-      <c r="AV6">
-        <v>0</v>
-      </c>
-      <c r="AW6">
-        <v>0</v>
-      </c>
-      <c r="AX6">
-        <v>0</v>
-      </c>
-      <c r="AY6">
-        <v>0</v>
-      </c>
-      <c r="AZ6">
-        <v>0</v>
-      </c>
-      <c r="BA6">
-        <v>0</v>
-      </c>
-      <c r="BB6">
-        <v>0</v>
+      <c r="B6" s="1">
+        <v>1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1</v>
+      </c>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1">
+        <v>1</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>1</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>1</v>
+      </c>
+      <c r="S6" s="1">
+        <v>1</v>
+      </c>
+      <c r="T6" s="1">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>1</v>
+      </c>
+      <c r="X6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="1">
+        <v>1</v>
       </c>
       <c r="BC6">
         <v>0</v>
@@ -1893,20 +1902,20 @@
       <c r="A7" s="1">
         <v>1</v>
       </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1920,14 +1929,14 @@
       <c r="J7">
         <v>0</v>
       </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>22</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1938,11 +1947,11 @@
       <c r="P7">
         <v>0</v>
       </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
+      <c r="Q7" s="1">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>1</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1953,17 +1962,17 @@
       <c r="U7">
         <v>0</v>
       </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
+      <c r="V7" s="3">
+        <v>22</v>
+      </c>
+      <c r="W7" s="1">
+        <v>1</v>
+      </c>
+      <c r="X7" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>22</v>
       </c>
       <c r="Z7">
         <v>0</v>
@@ -1974,11 +1983,11 @@
       <c r="AB7">
         <v>0</v>
       </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
+      <c r="AC7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>1</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1989,17 +1998,17 @@
       <c r="AG7">
         <v>0</v>
       </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
+      <c r="AH7" s="3">
+        <v>22</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>22</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -2010,47 +2019,47 @@
       <c r="AN7">
         <v>0</v>
       </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>0</v>
-      </c>
-      <c r="AV7">
-        <v>0</v>
-      </c>
-      <c r="AW7">
-        <v>0</v>
-      </c>
-      <c r="AX7">
-        <v>0</v>
-      </c>
-      <c r="AY7">
-        <v>0</v>
-      </c>
-      <c r="AZ7">
-        <v>0</v>
-      </c>
-      <c r="BA7">
-        <v>0</v>
-      </c>
-      <c r="BB7">
-        <v>0</v>
+      <c r="AO7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA7" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="1">
+        <v>1</v>
       </c>
       <c r="BC7">
         <v>0</v>
@@ -2066,20 +2075,20 @@
       <c r="A8" s="1">
         <v>1</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -2093,11 +2102,11 @@
       <c r="J8">
         <v>0</v>
       </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
+      <c r="K8" s="1">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1">
+        <v>1</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -2111,11 +2120,11 @@
       <c r="P8">
         <v>0</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
+      <c r="Q8" s="1">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -2129,11 +2138,11 @@
       <c r="V8">
         <v>0</v>
       </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
+      <c r="W8" s="1">
+        <v>1</v>
+      </c>
+      <c r="X8" s="1">
+        <v>1</v>
       </c>
       <c r="Y8">
         <v>0</v>
@@ -2147,11 +2156,11 @@
       <c r="AB8">
         <v>0</v>
       </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
+      <c r="AC8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>1</v>
       </c>
       <c r="AE8">
         <v>0</v>
@@ -2165,11 +2174,11 @@
       <c r="AH8">
         <v>0</v>
       </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-      <c r="AJ8">
-        <v>0</v>
+      <c r="AI8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>1</v>
       </c>
       <c r="AK8">
         <v>0</v>
@@ -2183,47 +2192,47 @@
       <c r="AN8">
         <v>0</v>
       </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
-        <v>0</v>
-      </c>
-      <c r="AR8">
-        <v>0</v>
-      </c>
-      <c r="AS8">
-        <v>0</v>
-      </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
-        <v>0</v>
-      </c>
-      <c r="AV8">
-        <v>0</v>
-      </c>
-      <c r="AW8">
-        <v>0</v>
-      </c>
-      <c r="AX8">
-        <v>0</v>
-      </c>
-      <c r="AY8">
-        <v>0</v>
-      </c>
-      <c r="AZ8">
-        <v>0</v>
-      </c>
-      <c r="BA8">
-        <v>0</v>
-      </c>
-      <c r="BB8">
-        <v>0</v>
+      <c r="AO8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>1</v>
       </c>
       <c r="BC8">
         <v>0</v>
@@ -2239,20 +2248,20 @@
       <c r="A9" s="1">
         <v>1</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -2266,11 +2275,11 @@
       <c r="J9">
         <v>0</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
+      <c r="K9" s="1">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1">
+        <v>1</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2284,11 +2293,11 @@
       <c r="P9">
         <v>0</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
+      <c r="Q9" s="1">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1">
+        <v>1</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -2302,11 +2311,11 @@
       <c r="V9">
         <v>0</v>
       </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
+      <c r="W9" s="1">
+        <v>1</v>
+      </c>
+      <c r="X9" s="1">
+        <v>1</v>
       </c>
       <c r="Y9">
         <v>0</v>
@@ -2320,11 +2329,11 @@
       <c r="AB9">
         <v>0</v>
       </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
+      <c r="AC9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>1</v>
       </c>
       <c r="AE9">
         <v>0</v>
@@ -2338,11 +2347,11 @@
       <c r="AH9">
         <v>0</v>
       </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-      <c r="AJ9">
-        <v>0</v>
+      <c r="AI9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="1">
+        <v>1</v>
       </c>
       <c r="AK9">
         <v>0</v>
@@ -2356,47 +2365,47 @@
       <c r="AN9">
         <v>0</v>
       </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
-        <v>0</v>
-      </c>
-      <c r="AR9">
-        <v>0</v>
-      </c>
-      <c r="AS9">
-        <v>0</v>
-      </c>
-      <c r="AT9">
-        <v>0</v>
-      </c>
-      <c r="AU9">
-        <v>0</v>
-      </c>
-      <c r="AV9">
-        <v>0</v>
-      </c>
-      <c r="AW9">
-        <v>0</v>
-      </c>
-      <c r="AX9">
-        <v>0</v>
-      </c>
-      <c r="AY9">
-        <v>0</v>
-      </c>
-      <c r="AZ9">
-        <v>0</v>
-      </c>
-      <c r="BA9">
-        <v>0</v>
-      </c>
-      <c r="BB9">
-        <v>0</v>
+      <c r="AO9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA9" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="1">
+        <v>1</v>
       </c>
       <c r="BC9">
         <v>0</v>
@@ -2412,20 +2421,20 @@
       <c r="A10" s="1">
         <v>1</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2433,23 +2442,23 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>0</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
+      <c r="L10" s="1">
+        <v>1</v>
+      </c>
+      <c r="M10" s="1">
+        <v>1</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2457,11 +2466,11 @@
       <c r="P10">
         <v>0</v>
       </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1">
+        <v>1</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -2469,23 +2478,23 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>0</v>
+      <c r="U10" s="1">
+        <v>1</v>
+      </c>
+      <c r="V10" s="1">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1">
+        <v>1</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>1</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -2493,11 +2502,11 @@
       <c r="AB10">
         <v>0</v>
       </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
+      <c r="AC10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>1</v>
       </c>
       <c r="AE10">
         <v>0</v>
@@ -2505,23 +2514,23 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
+      <c r="AG10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="1">
+        <v>1</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -2529,47 +2538,47 @@
       <c r="AN10">
         <v>0</v>
       </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>0</v>
-      </c>
-      <c r="AU10">
-        <v>0</v>
-      </c>
-      <c r="AV10">
-        <v>0</v>
-      </c>
-      <c r="AW10">
-        <v>0</v>
-      </c>
-      <c r="AX10">
-        <v>0</v>
-      </c>
-      <c r="AY10">
-        <v>0</v>
-      </c>
-      <c r="AZ10">
-        <v>0</v>
-      </c>
-      <c r="BA10">
-        <v>0</v>
-      </c>
-      <c r="BB10">
-        <v>0</v>
+      <c r="AO10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA10" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="1">
+        <v>1</v>
       </c>
       <c r="BC10">
         <v>0</v>
@@ -2585,20 +2594,20 @@
       <c r="A11" s="1">
         <v>1</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -2606,23 +2615,23 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1</v>
+      </c>
+      <c r="M11" s="1">
+        <v>1</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2630,11 +2639,11 @@
       <c r="P11">
         <v>0</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>1</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -2642,23 +2651,23 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
+      <c r="U11" s="1">
+        <v>1</v>
+      </c>
+      <c r="V11" s="1">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1">
+        <v>1</v>
+      </c>
+      <c r="X11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>1</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2666,11 +2675,11 @@
       <c r="AB11">
         <v>0</v>
       </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
+      <c r="AC11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>1</v>
       </c>
       <c r="AE11">
         <v>0</v>
@@ -2678,23 +2687,23 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-      <c r="AJ11">
-        <v>0</v>
-      </c>
-      <c r="AK11">
-        <v>0</v>
-      </c>
-      <c r="AL11">
-        <v>0</v>
+      <c r="AG11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="1">
+        <v>1</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2702,47 +2711,47 @@
       <c r="AN11">
         <v>0</v>
       </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
-        <v>0</v>
-      </c>
-      <c r="AR11">
-        <v>0</v>
-      </c>
-      <c r="AS11">
-        <v>0</v>
-      </c>
-      <c r="AT11">
-        <v>0</v>
-      </c>
-      <c r="AU11">
-        <v>0</v>
-      </c>
-      <c r="AV11">
-        <v>0</v>
-      </c>
-      <c r="AW11">
-        <v>0</v>
-      </c>
-      <c r="AX11">
-        <v>0</v>
-      </c>
-      <c r="AY11">
-        <v>0</v>
-      </c>
-      <c r="AZ11">
-        <v>0</v>
-      </c>
-      <c r="BA11">
-        <v>0</v>
-      </c>
-      <c r="BB11">
-        <v>0</v>
+      <c r="AO11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY11" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>1</v>
       </c>
       <c r="BC11">
         <v>0</v>
@@ -2758,8 +2767,8 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12">
-        <v>0</v>
+      <c r="B12" s="3">
+        <v>22</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -2908,14 +2917,14 @@
       <c r="AY12">
         <v>0</v>
       </c>
-      <c r="AZ12">
-        <v>0</v>
-      </c>
-      <c r="BA12">
-        <v>0</v>
-      </c>
-      <c r="BB12">
-        <v>0</v>
+      <c r="AZ12" s="3">
+        <v>22</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>1</v>
       </c>
       <c r="BC12">
         <v>0</v>
@@ -3084,11 +3093,11 @@
       <c r="AZ13">
         <v>0</v>
       </c>
-      <c r="BA13">
-        <v>0</v>
-      </c>
-      <c r="BB13">
-        <v>0</v>
+      <c r="BA13" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="1">
+        <v>1</v>
       </c>
       <c r="BC13">
         <v>0</v>
@@ -3257,11 +3266,11 @@
       <c r="AZ14">
         <v>0</v>
       </c>
-      <c r="BA14">
-        <v>0</v>
-      </c>
-      <c r="BB14">
-        <v>0</v>
+      <c r="BA14" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="1">
+        <v>1</v>
       </c>
       <c r="BC14">
         <v>0</v>
@@ -3343,8 +3352,8 @@
       <c r="W15">
         <v>0</v>
       </c>
-      <c r="X15">
-        <v>0</v>
+      <c r="X15" s="3">
+        <v>22</v>
       </c>
       <c r="Y15">
         <v>0</v>
@@ -3379,8 +3388,8 @@
       <c r="AI15">
         <v>0</v>
       </c>
-      <c r="AJ15">
-        <v>0</v>
+      <c r="AJ15" s="3">
+        <v>22</v>
       </c>
       <c r="AK15">
         <v>0</v>
@@ -3430,11 +3439,11 @@
       <c r="AZ15">
         <v>0</v>
       </c>
-      <c r="BA15">
-        <v>0</v>
-      </c>
-      <c r="BB15">
-        <v>0</v>
+      <c r="BA15" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="1">
+        <v>1</v>
       </c>
       <c r="BC15">
         <v>0</v>
@@ -3450,29 +3459,29 @@
       <c r="A16" s="1">
         <v>1</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>1</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -3495,11 +3504,11 @@
       <c r="P16">
         <v>0</v>
       </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
+      <c r="Q16" s="1">
+        <v>1</v>
+      </c>
+      <c r="R16" s="1">
+        <v>1</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -3507,23 +3516,23 @@
       <c r="T16">
         <v>0</v>
       </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>0</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
+      <c r="U16" s="1">
+        <v>1</v>
+      </c>
+      <c r="V16" s="1">
+        <v>1</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -3531,11 +3540,11 @@
       <c r="AB16">
         <v>0</v>
       </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
+      <c r="AC16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1</v>
       </c>
       <c r="AE16">
         <v>0</v>
@@ -3543,23 +3552,23 @@
       <c r="AF16">
         <v>0</v>
       </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>0</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-      <c r="AJ16">
-        <v>0</v>
-      </c>
-      <c r="AK16">
-        <v>0</v>
-      </c>
-      <c r="AL16">
-        <v>0</v>
+      <c r="AG16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>1</v>
       </c>
       <c r="AM16">
         <v>0</v>
@@ -3567,11 +3576,11 @@
       <c r="AN16">
         <v>0</v>
       </c>
-      <c r="AO16">
-        <v>0</v>
-      </c>
-      <c r="AP16">
-        <v>0</v>
+      <c r="AO16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>1</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -3579,17 +3588,17 @@
       <c r="AR16">
         <v>0</v>
       </c>
-      <c r="AS16">
-        <v>0</v>
-      </c>
-      <c r="AT16">
-        <v>0</v>
-      </c>
-      <c r="AU16">
-        <v>0</v>
-      </c>
-      <c r="AV16">
-        <v>0</v>
+      <c r="AS16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV16" s="1">
+        <v>1</v>
       </c>
       <c r="AW16">
         <v>0</v>
@@ -3603,11 +3612,11 @@
       <c r="AZ16">
         <v>0</v>
       </c>
-      <c r="BA16">
-        <v>0</v>
-      </c>
-      <c r="BB16">
-        <v>0</v>
+      <c r="BA16" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="1">
+        <v>1</v>
       </c>
       <c r="BC16">
         <v>0</v>
@@ -3623,32 +3632,32 @@
       <c r="A17" s="1">
         <v>1</v>
       </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>1</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>22</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -3668,11 +3677,11 @@
       <c r="P17">
         <v>0</v>
       </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
+      <c r="Q17" s="1">
+        <v>1</v>
+      </c>
+      <c r="R17" s="1">
+        <v>1</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -3680,23 +3689,23 @@
       <c r="T17">
         <v>0</v>
       </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>1</v>
+      </c>
+      <c r="W17" s="1">
+        <v>1</v>
+      </c>
+      <c r="X17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>1</v>
       </c>
       <c r="AA17">
         <v>0</v>
@@ -3704,11 +3713,11 @@
       <c r="AB17">
         <v>0</v>
       </c>
-      <c r="AC17">
-        <v>0</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
+      <c r="AC17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>1</v>
       </c>
       <c r="AE17">
         <v>0</v>
@@ -3716,23 +3725,23 @@
       <c r="AF17">
         <v>0</v>
       </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-      <c r="AJ17">
-        <v>0</v>
-      </c>
-      <c r="AK17">
-        <v>0</v>
-      </c>
-      <c r="AL17">
-        <v>0</v>
+      <c r="AG17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="1">
+        <v>1</v>
       </c>
       <c r="AM17">
         <v>0</v>
@@ -3740,11 +3749,11 @@
       <c r="AN17">
         <v>0</v>
       </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
+      <c r="AO17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>0</v>
@@ -3752,17 +3761,17 @@
       <c r="AR17">
         <v>0</v>
       </c>
-      <c r="AS17">
-        <v>0</v>
-      </c>
-      <c r="AT17">
-        <v>0</v>
-      </c>
-      <c r="AU17">
-        <v>0</v>
-      </c>
-      <c r="AV17">
-        <v>0</v>
+      <c r="AS17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU17" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV17" s="1">
+        <v>1</v>
       </c>
       <c r="AW17">
         <v>0</v>
@@ -3776,11 +3785,11 @@
       <c r="AZ17">
         <v>0</v>
       </c>
-      <c r="BA17">
-        <v>0</v>
-      </c>
-      <c r="BB17">
-        <v>0</v>
+      <c r="BA17" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="1">
+        <v>1</v>
       </c>
       <c r="BC17">
         <v>0</v>
@@ -3797,40 +3806,40 @@
         <v>1</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>1</v>
+      </c>
+      <c r="L18" s="1">
+        <v>1</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -3841,11 +3850,11 @@
       <c r="P18">
         <v>0</v>
       </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
+      <c r="Q18" s="1">
+        <v>1</v>
+      </c>
+      <c r="R18" s="1">
+        <v>1</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3859,11 +3868,11 @@
       <c r="V18">
         <v>0</v>
       </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>0</v>
+      <c r="W18" s="1">
+        <v>1</v>
+      </c>
+      <c r="X18" s="1">
+        <v>1</v>
       </c>
       <c r="Y18">
         <v>0</v>
@@ -3877,11 +3886,11 @@
       <c r="AB18">
         <v>0</v>
       </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
+      <c r="AC18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1</v>
       </c>
       <c r="AE18">
         <v>0</v>
@@ -3895,11 +3904,11 @@
       <c r="AH18">
         <v>0</v>
       </c>
-      <c r="AI18">
-        <v>0</v>
-      </c>
-      <c r="AJ18">
-        <v>0</v>
+      <c r="AI18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="1">
+        <v>1</v>
       </c>
       <c r="AK18">
         <v>0</v>
@@ -3913,11 +3922,11 @@
       <c r="AN18">
         <v>0</v>
       </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
+      <c r="AO18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>1</v>
       </c>
       <c r="AQ18">
         <v>0</v>
@@ -3931,11 +3940,11 @@
       <c r="AT18">
         <v>0</v>
       </c>
-      <c r="AU18">
-        <v>0</v>
-      </c>
-      <c r="AV18">
-        <v>0</v>
+      <c r="AU18" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV18" s="1">
+        <v>1</v>
       </c>
       <c r="AW18">
         <v>0</v>
@@ -3949,11 +3958,11 @@
       <c r="AZ18">
         <v>0</v>
       </c>
-      <c r="BA18">
-        <v>0</v>
-      </c>
-      <c r="BB18">
-        <v>0</v>
+      <c r="BA18" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="1">
+        <v>1</v>
       </c>
       <c r="BC18">
         <v>0</v>
@@ -3970,40 +3979,40 @@
         <v>1</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H19" s="1">
+        <v>1</v>
+      </c>
+      <c r="I19" s="1">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1</v>
+      </c>
+      <c r="K19" s="1">
+        <v>1</v>
+      </c>
+      <c r="L19" s="1">
+        <v>1</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -4014,11 +4023,11 @@
       <c r="P19">
         <v>0</v>
       </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
+      <c r="Q19" s="1">
+        <v>1</v>
+      </c>
+      <c r="R19" s="1">
+        <v>1</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -4032,11 +4041,11 @@
       <c r="V19">
         <v>0</v>
       </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
+      <c r="W19" s="1">
+        <v>1</v>
+      </c>
+      <c r="X19" s="1">
+        <v>1</v>
       </c>
       <c r="Y19">
         <v>0</v>
@@ -4050,11 +4059,11 @@
       <c r="AB19">
         <v>0</v>
       </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
+      <c r="AC19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>1</v>
       </c>
       <c r="AE19">
         <v>0</v>
@@ -4068,11 +4077,11 @@
       <c r="AH19">
         <v>0</v>
       </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-      <c r="AJ19">
-        <v>0</v>
+      <c r="AI19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="1">
+        <v>1</v>
       </c>
       <c r="AK19">
         <v>0</v>
@@ -4086,11 +4095,11 @@
       <c r="AN19">
         <v>0</v>
       </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
+      <c r="AO19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0</v>
@@ -4104,11 +4113,11 @@
       <c r="AT19">
         <v>0</v>
       </c>
-      <c r="AU19">
-        <v>0</v>
-      </c>
-      <c r="AV19">
-        <v>0</v>
+      <c r="AU19" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV19" s="1">
+        <v>1</v>
       </c>
       <c r="AW19">
         <v>0</v>
@@ -4122,11 +4131,11 @@
       <c r="AZ19">
         <v>0</v>
       </c>
-      <c r="BA19">
-        <v>0</v>
-      </c>
-      <c r="BB19">
-        <v>0</v>
+      <c r="BA19" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="1">
+        <v>1</v>
       </c>
       <c r="BC19">
         <v>0</v>
@@ -4143,40 +4152,40 @@
         <v>1</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="L20" s="1">
+        <v>1</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -4187,11 +4196,11 @@
       <c r="P20">
         <v>0</v>
       </c>
-      <c r="Q20">
-        <v>0</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="1">
+        <v>1</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -4205,11 +4214,11 @@
       <c r="V20">
         <v>0</v>
       </c>
-      <c r="W20">
-        <v>0</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
+      <c r="W20" s="1">
+        <v>1</v>
+      </c>
+      <c r="X20" s="1">
+        <v>1</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -4223,11 +4232,11 @@
       <c r="AB20">
         <v>0</v>
       </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
+      <c r="AC20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>1</v>
       </c>
       <c r="AE20">
         <v>0</v>
@@ -4241,11 +4250,11 @@
       <c r="AH20">
         <v>0</v>
       </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-      <c r="AJ20">
-        <v>0</v>
+      <c r="AI20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>1</v>
       </c>
       <c r="AK20">
         <v>0</v>
@@ -4259,11 +4268,11 @@
       <c r="AN20">
         <v>0</v>
       </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
+      <c r="AO20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>1</v>
       </c>
       <c r="AQ20">
         <v>0</v>
@@ -4277,11 +4286,11 @@
       <c r="AT20">
         <v>0</v>
       </c>
-      <c r="AU20">
-        <v>0</v>
-      </c>
-      <c r="AV20">
-        <v>0</v>
+      <c r="AU20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV20" s="1">
+        <v>1</v>
       </c>
       <c r="AW20">
         <v>0</v>
@@ -4295,11 +4304,11 @@
       <c r="AZ20">
         <v>0</v>
       </c>
-      <c r="BA20">
-        <v>0</v>
-      </c>
-      <c r="BB20">
-        <v>0</v>
+      <c r="BA20" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="1">
+        <v>1</v>
       </c>
       <c r="BC20">
         <v>0</v>
@@ -4316,40 +4325,40 @@
         <v>1</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="L21" s="1">
+        <v>1</v>
+      </c>
+      <c r="M21" s="1">
+        <v>1</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -4360,11 +4369,11 @@
       <c r="P21">
         <v>0</v>
       </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
+      <c r="Q21" s="1">
+        <v>1</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -4378,11 +4387,11 @@
       <c r="V21">
         <v>0</v>
       </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
+      <c r="W21" s="1">
+        <v>1</v>
+      </c>
+      <c r="X21" s="1">
+        <v>1</v>
       </c>
       <c r="Y21">
         <v>0</v>
@@ -4396,11 +4405,11 @@
       <c r="AB21">
         <v>0</v>
       </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
+      <c r="AC21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>1</v>
       </c>
       <c r="AE21">
         <v>0</v>
@@ -4414,11 +4423,11 @@
       <c r="AH21">
         <v>0</v>
       </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-      <c r="AJ21">
-        <v>0</v>
+      <c r="AI21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>1</v>
       </c>
       <c r="AK21">
         <v>0</v>
@@ -4432,11 +4441,11 @@
       <c r="AN21">
         <v>0</v>
       </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
+      <c r="AO21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>1</v>
       </c>
       <c r="AQ21">
         <v>0</v>
@@ -4450,11 +4459,11 @@
       <c r="AT21">
         <v>0</v>
       </c>
-      <c r="AU21">
-        <v>0</v>
-      </c>
-      <c r="AV21">
-        <v>0</v>
+      <c r="AU21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV21" s="1">
+        <v>1</v>
       </c>
       <c r="AW21">
         <v>0</v>
@@ -4468,11 +4477,11 @@
       <c r="AZ21">
         <v>0</v>
       </c>
-      <c r="BA21">
-        <v>0</v>
-      </c>
-      <c r="BB21">
-        <v>0</v>
+      <c r="BA21" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB21" s="1">
+        <v>1</v>
       </c>
       <c r="BC21">
         <v>0</v>
@@ -4489,19 +4498,19 @@
         <v>1</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -4518,11 +4527,11 @@
       <c r="K22">
         <v>0</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
+      <c r="L22" s="1">
+        <v>1</v>
+      </c>
+      <c r="M22" s="1">
+        <v>1</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -4533,11 +4542,11 @@
       <c r="P22">
         <v>0</v>
       </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1">
+        <v>1</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -4551,11 +4560,11 @@
       <c r="V22">
         <v>0</v>
       </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
+      <c r="W22" s="1">
+        <v>1</v>
+      </c>
+      <c r="X22" s="1">
+        <v>1</v>
       </c>
       <c r="Y22">
         <v>0</v>
@@ -4569,11 +4578,11 @@
       <c r="AB22">
         <v>0</v>
       </c>
-      <c r="AC22">
-        <v>0</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
+      <c r="AC22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>1</v>
       </c>
       <c r="AE22">
         <v>0</v>
@@ -4587,11 +4596,11 @@
       <c r="AH22">
         <v>0</v>
       </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-      <c r="AJ22">
-        <v>0</v>
+      <c r="AI22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>1</v>
       </c>
       <c r="AK22">
         <v>0</v>
@@ -4605,11 +4614,11 @@
       <c r="AN22">
         <v>0</v>
       </c>
-      <c r="AO22">
-        <v>0</v>
-      </c>
-      <c r="AP22">
-        <v>0</v>
+      <c r="AO22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>1</v>
       </c>
       <c r="AQ22">
         <v>0</v>
@@ -4623,11 +4632,11 @@
       <c r="AT22">
         <v>0</v>
       </c>
-      <c r="AU22">
-        <v>0</v>
-      </c>
-      <c r="AV22">
-        <v>0</v>
+      <c r="AU22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV22" s="1">
+        <v>1</v>
       </c>
       <c r="AW22">
         <v>0</v>
@@ -4641,11 +4650,11 @@
       <c r="AZ22">
         <v>0</v>
       </c>
-      <c r="BA22">
-        <v>0</v>
-      </c>
-      <c r="BB22">
-        <v>0</v>
+      <c r="BA22" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="1">
+        <v>1</v>
       </c>
       <c r="BC22">
         <v>0</v>
@@ -4662,19 +4671,19 @@
         <v>1</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1</v>
+      </c>
+      <c r="E23" s="1">
+        <v>1</v>
+      </c>
+      <c r="F23" s="1">
+        <v>1</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -4706,11 +4715,11 @@
       <c r="P23">
         <v>0</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+      <c r="R23" s="1">
+        <v>1</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -4724,11 +4733,11 @@
       <c r="V23">
         <v>0</v>
       </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
+      <c r="W23" s="1">
+        <v>1</v>
+      </c>
+      <c r="X23" s="1">
+        <v>1</v>
       </c>
       <c r="Y23">
         <v>0</v>
@@ -4742,11 +4751,11 @@
       <c r="AB23">
         <v>0</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
+      <c r="AC23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>1</v>
       </c>
       <c r="AE23">
         <v>0</v>
@@ -4760,11 +4769,11 @@
       <c r="AH23">
         <v>0</v>
       </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-      <c r="AJ23">
-        <v>0</v>
+      <c r="AI23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>1</v>
       </c>
       <c r="AK23">
         <v>0</v>
@@ -4778,11 +4787,11 @@
       <c r="AN23">
         <v>0</v>
       </c>
-      <c r="AO23">
-        <v>0</v>
-      </c>
-      <c r="AP23">
-        <v>0</v>
+      <c r="AO23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>0</v>
@@ -4796,11 +4805,11 @@
       <c r="AT23">
         <v>0</v>
       </c>
-      <c r="AU23">
-        <v>0</v>
-      </c>
-      <c r="AV23">
-        <v>0</v>
+      <c r="AU23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV23" s="1">
+        <v>1</v>
       </c>
       <c r="AW23">
         <v>0</v>
@@ -4814,11 +4823,11 @@
       <c r="AZ23">
         <v>0</v>
       </c>
-      <c r="BA23">
-        <v>0</v>
-      </c>
-      <c r="BB23">
-        <v>0</v>
+      <c r="BA23" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="1">
+        <v>1</v>
       </c>
       <c r="BC23">
         <v>0</v>
@@ -4835,10 +4844,10 @@
         <v>1</v>
       </c>
       <c r="B24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4879,101 +4888,101 @@
       <c r="P24">
         <v>0</v>
       </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>0</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-      <c r="AJ24">
-        <v>0</v>
-      </c>
-      <c r="AK24">
-        <v>0</v>
-      </c>
-      <c r="AL24">
-        <v>0</v>
-      </c>
-      <c r="AM24">
-        <v>0</v>
-      </c>
-      <c r="AN24">
-        <v>0</v>
-      </c>
-      <c r="AO24">
-        <v>0</v>
-      </c>
-      <c r="AP24">
-        <v>0</v>
-      </c>
-      <c r="AQ24">
-        <v>0</v>
-      </c>
-      <c r="AR24">
-        <v>0</v>
-      </c>
-      <c r="AS24">
-        <v>0</v>
-      </c>
-      <c r="AT24">
-        <v>0</v>
-      </c>
-      <c r="AU24">
-        <v>0</v>
-      </c>
-      <c r="AV24">
-        <v>0</v>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="1">
+        <v>1</v>
+      </c>
+      <c r="S24" s="1">
+        <v>1</v>
+      </c>
+      <c r="T24" s="1">
+        <v>1</v>
+      </c>
+      <c r="U24" s="1">
+        <v>1</v>
+      </c>
+      <c r="V24" s="1">
+        <v>1</v>
+      </c>
+      <c r="W24" s="1">
+        <v>1</v>
+      </c>
+      <c r="X24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV24" s="1">
+        <v>1</v>
       </c>
       <c r="AW24">
         <v>0</v>
@@ -4987,11 +4996,11 @@
       <c r="AZ24">
         <v>0</v>
       </c>
-      <c r="BA24">
-        <v>0</v>
-      </c>
-      <c r="BB24">
-        <v>0</v>
+      <c r="BA24" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB24" s="1">
+        <v>1</v>
       </c>
       <c r="BC24">
         <v>0</v>
@@ -5008,10 +5017,10 @@
         <v>1</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -5025,8 +5034,8 @@
       <c r="G25">
         <v>0</v>
       </c>
-      <c r="H25">
-        <v>0</v>
+      <c r="H25" s="3">
+        <v>22</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -5052,101 +5061,101 @@
       <c r="P25">
         <v>0</v>
       </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>0</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>0</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>0</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-      <c r="AJ25">
-        <v>0</v>
-      </c>
-      <c r="AK25">
-        <v>0</v>
-      </c>
-      <c r="AL25">
-        <v>0</v>
-      </c>
-      <c r="AM25">
-        <v>0</v>
-      </c>
-      <c r="AN25">
-        <v>0</v>
-      </c>
-      <c r="AO25">
-        <v>0</v>
-      </c>
-      <c r="AP25">
-        <v>0</v>
-      </c>
-      <c r="AQ25">
-        <v>0</v>
-      </c>
-      <c r="AR25">
-        <v>0</v>
-      </c>
-      <c r="AS25">
-        <v>0</v>
-      </c>
-      <c r="AT25">
-        <v>0</v>
-      </c>
-      <c r="AU25">
-        <v>0</v>
-      </c>
-      <c r="AV25">
-        <v>0</v>
+      <c r="Q25" s="1">
+        <v>1</v>
+      </c>
+      <c r="R25" s="1">
+        <v>1</v>
+      </c>
+      <c r="S25" s="1">
+        <v>1</v>
+      </c>
+      <c r="T25" s="1">
+        <v>1</v>
+      </c>
+      <c r="U25" s="1">
+        <v>1</v>
+      </c>
+      <c r="V25" s="1">
+        <v>1</v>
+      </c>
+      <c r="W25" s="1">
+        <v>1</v>
+      </c>
+      <c r="X25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU25" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV25" s="1">
+        <v>1</v>
       </c>
       <c r="AW25">
         <v>0</v>
@@ -5160,11 +5169,11 @@
       <c r="AZ25">
         <v>0</v>
       </c>
-      <c r="BA25">
-        <v>0</v>
-      </c>
-      <c r="BB25">
-        <v>0</v>
+      <c r="BA25" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB25" s="1">
+        <v>1</v>
       </c>
       <c r="BC25">
         <v>0</v>
@@ -5181,10 +5190,10 @@
         <v>1</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -5198,20 +5207,20 @@
       <c r="G26">
         <v>0</v>
       </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -5354,10 +5363,10 @@
         <v>1</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -5371,20 +5380,20 @@
       <c r="G27">
         <v>0</v>
       </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
       </c>
       <c r="M27">
         <v>0</v>
@@ -5527,10 +5536,10 @@
         <v>1</v>
       </c>
       <c r="B28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -5544,8 +5553,8 @@
       <c r="G28">
         <v>0</v>
       </c>
-      <c r="H28">
-        <v>0</v>
+      <c r="H28" s="3">
+        <v>22</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -5571,101 +5580,101 @@
       <c r="P28">
         <v>0</v>
       </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>0</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>0</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-      <c r="AJ28">
-        <v>0</v>
-      </c>
-      <c r="AK28">
-        <v>0</v>
-      </c>
-      <c r="AL28">
-        <v>0</v>
-      </c>
-      <c r="AM28">
-        <v>0</v>
-      </c>
-      <c r="AN28">
-        <v>0</v>
-      </c>
-      <c r="AO28">
-        <v>0</v>
-      </c>
-      <c r="AP28">
-        <v>0</v>
-      </c>
-      <c r="AQ28">
-        <v>0</v>
-      </c>
-      <c r="AR28">
-        <v>0</v>
-      </c>
-      <c r="AS28">
-        <v>0</v>
-      </c>
-      <c r="AT28">
-        <v>0</v>
-      </c>
-      <c r="AU28">
-        <v>0</v>
-      </c>
-      <c r="AV28">
-        <v>0</v>
+      <c r="Q28" s="1">
+        <v>1</v>
+      </c>
+      <c r="R28" s="1">
+        <v>1</v>
+      </c>
+      <c r="S28" s="1">
+        <v>1</v>
+      </c>
+      <c r="T28" s="1">
+        <v>1</v>
+      </c>
+      <c r="U28" s="1">
+        <v>1</v>
+      </c>
+      <c r="V28" s="1">
+        <v>1</v>
+      </c>
+      <c r="W28" s="1">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV28" s="1">
+        <v>1</v>
       </c>
       <c r="AW28">
         <v>0</v>
@@ -5679,11 +5688,11 @@
       <c r="AZ28">
         <v>0</v>
       </c>
-      <c r="BA28">
-        <v>0</v>
-      </c>
-      <c r="BB28">
-        <v>0</v>
+      <c r="BA28" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB28" s="1">
+        <v>1</v>
       </c>
       <c r="BC28">
         <v>0</v>
@@ -5700,10 +5709,10 @@
         <v>1</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5744,101 +5753,101 @@
       <c r="P29">
         <v>0</v>
       </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-      <c r="AJ29">
-        <v>0</v>
-      </c>
-      <c r="AK29">
-        <v>0</v>
-      </c>
-      <c r="AL29">
-        <v>0</v>
-      </c>
-      <c r="AM29">
-        <v>0</v>
-      </c>
-      <c r="AN29">
-        <v>0</v>
-      </c>
-      <c r="AO29">
-        <v>0</v>
-      </c>
-      <c r="AP29">
-        <v>0</v>
-      </c>
-      <c r="AQ29">
-        <v>0</v>
-      </c>
-      <c r="AR29">
-        <v>0</v>
-      </c>
-      <c r="AS29">
-        <v>0</v>
-      </c>
-      <c r="AT29">
-        <v>0</v>
-      </c>
-      <c r="AU29">
-        <v>0</v>
-      </c>
-      <c r="AV29">
-        <v>0</v>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="1">
+        <v>1</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1</v>
+      </c>
+      <c r="T29" s="1">
+        <v>1</v>
+      </c>
+      <c r="U29" s="1">
+        <v>1</v>
+      </c>
+      <c r="V29" s="1">
+        <v>1</v>
+      </c>
+      <c r="W29" s="1">
+        <v>1</v>
+      </c>
+      <c r="X29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>1</v>
       </c>
       <c r="AW29">
         <v>0</v>
@@ -5852,11 +5861,11 @@
       <c r="AZ29">
         <v>0</v>
       </c>
-      <c r="BA29">
-        <v>0</v>
-      </c>
-      <c r="BB29">
-        <v>0</v>
+      <c r="BA29" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB29" s="1">
+        <v>1</v>
       </c>
       <c r="BC29">
         <v>0</v>
@@ -5873,19 +5882,19 @@
         <v>1</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="D30" s="1">
+        <v>1</v>
+      </c>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -5917,11 +5926,11 @@
       <c r="P30">
         <v>0</v>
       </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
+      <c r="Q30" s="1">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1">
+        <v>1</v>
       </c>
       <c r="S30">
         <v>0</v>
@@ -5935,11 +5944,11 @@
       <c r="V30">
         <v>0</v>
       </c>
-      <c r="W30">
-        <v>0</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
+      <c r="W30" s="1">
+        <v>1</v>
+      </c>
+      <c r="X30" s="1">
+        <v>1</v>
       </c>
       <c r="Y30">
         <v>0</v>
@@ -5953,11 +5962,11 @@
       <c r="AB30">
         <v>0</v>
       </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
+      <c r="AC30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>1</v>
       </c>
       <c r="AE30">
         <v>0</v>
@@ -5971,11 +5980,11 @@
       <c r="AH30">
         <v>0</v>
       </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-      <c r="AJ30">
-        <v>0</v>
+      <c r="AI30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>1</v>
       </c>
       <c r="AK30">
         <v>0</v>
@@ -5989,11 +5998,11 @@
       <c r="AN30">
         <v>0</v>
       </c>
-      <c r="AO30">
-        <v>0</v>
-      </c>
-      <c r="AP30">
-        <v>0</v>
+      <c r="AO30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP30" s="1">
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>0</v>
@@ -6007,11 +6016,11 @@
       <c r="AT30">
         <v>0</v>
       </c>
-      <c r="AU30">
-        <v>0</v>
-      </c>
-      <c r="AV30">
-        <v>0</v>
+      <c r="AU30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV30" s="1">
+        <v>1</v>
       </c>
       <c r="AW30">
         <v>0</v>
@@ -6025,11 +6034,11 @@
       <c r="AZ30">
         <v>0</v>
       </c>
-      <c r="BA30">
-        <v>0</v>
-      </c>
-      <c r="BB30">
-        <v>0</v>
+      <c r="BA30" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB30" s="1">
+        <v>1</v>
       </c>
       <c r="BC30">
         <v>0</v>
@@ -6046,19 +6055,19 @@
         <v>1</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1</v>
       </c>
       <c r="G31">
         <v>0</v>
@@ -6075,11 +6084,11 @@
       <c r="K31">
         <v>0</v>
       </c>
-      <c r="L31">
-        <v>0</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
+      <c r="L31" s="1">
+        <v>1</v>
+      </c>
+      <c r="M31" s="1">
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -6090,11 +6099,11 @@
       <c r="P31">
         <v>0</v>
       </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="1">
+        <v>1</v>
       </c>
       <c r="S31">
         <v>0</v>
@@ -6108,11 +6117,11 @@
       <c r="V31">
         <v>0</v>
       </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
+      <c r="W31" s="1">
+        <v>1</v>
+      </c>
+      <c r="X31" s="1">
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>0</v>
@@ -6126,11 +6135,11 @@
       <c r="AB31">
         <v>0</v>
       </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
+      <c r="AC31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="1">
+        <v>1</v>
       </c>
       <c r="AE31">
         <v>0</v>
@@ -6144,11 +6153,11 @@
       <c r="AH31">
         <v>0</v>
       </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-      <c r="AJ31">
-        <v>0</v>
+      <c r="AI31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ31" s="1">
+        <v>1</v>
       </c>
       <c r="AK31">
         <v>0</v>
@@ -6162,11 +6171,11 @@
       <c r="AN31">
         <v>0</v>
       </c>
-      <c r="AO31">
-        <v>0</v>
-      </c>
-      <c r="AP31">
-        <v>0</v>
+      <c r="AO31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP31" s="1">
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>0</v>
@@ -6180,11 +6189,11 @@
       <c r="AT31">
         <v>0</v>
       </c>
-      <c r="AU31">
-        <v>0</v>
-      </c>
-      <c r="AV31">
-        <v>0</v>
+      <c r="AU31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV31" s="1">
+        <v>1</v>
       </c>
       <c r="AW31">
         <v>0</v>
@@ -6198,11 +6207,11 @@
       <c r="AZ31">
         <v>0</v>
       </c>
-      <c r="BA31">
-        <v>0</v>
-      </c>
-      <c r="BB31">
-        <v>0</v>
+      <c r="BA31" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB31" s="1">
+        <v>1</v>
       </c>
       <c r="BC31">
         <v>0</v>
@@ -6219,40 +6228,40 @@
         <v>1</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K32">
-        <v>0</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="L32" s="1">
+        <v>1</v>
+      </c>
+      <c r="M32" s="1">
+        <v>1</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -6263,11 +6272,11 @@
       <c r="P32">
         <v>0</v>
       </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
+      <c r="Q32" s="1">
+        <v>1</v>
+      </c>
+      <c r="R32" s="1">
+        <v>1</v>
       </c>
       <c r="S32">
         <v>0</v>
@@ -6281,11 +6290,11 @@
       <c r="V32">
         <v>0</v>
       </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
+      <c r="W32" s="1">
+        <v>1</v>
+      </c>
+      <c r="X32" s="1">
+        <v>1</v>
       </c>
       <c r="Y32">
         <v>0</v>
@@ -6299,11 +6308,11 @@
       <c r="AB32">
         <v>0</v>
       </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
+      <c r="AC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>1</v>
       </c>
       <c r="AE32">
         <v>0</v>
@@ -6317,11 +6326,11 @@
       <c r="AH32">
         <v>0</v>
       </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-      <c r="AJ32">
-        <v>0</v>
+      <c r="AI32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ32" s="1">
+        <v>1</v>
       </c>
       <c r="AK32">
         <v>0</v>
@@ -6335,11 +6344,11 @@
       <c r="AN32">
         <v>0</v>
       </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>0</v>
+      <c r="AO32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP32" s="1">
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -6353,11 +6362,11 @@
       <c r="AT32">
         <v>0</v>
       </c>
-      <c r="AU32">
-        <v>0</v>
-      </c>
-      <c r="AV32">
-        <v>0</v>
+      <c r="AU32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV32" s="1">
+        <v>1</v>
       </c>
       <c r="AW32">
         <v>0</v>
@@ -6371,11 +6380,11 @@
       <c r="AZ32">
         <v>0</v>
       </c>
-      <c r="BA32">
-        <v>0</v>
-      </c>
-      <c r="BB32">
-        <v>0</v>
+      <c r="BA32" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB32" s="1">
+        <v>1</v>
       </c>
       <c r="BC32">
         <v>0</v>
@@ -6392,40 +6401,40 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="L33" s="1">
+        <v>1</v>
+      </c>
+      <c r="M33" s="1">
+        <v>1</v>
       </c>
       <c r="N33">
         <v>0</v>
@@ -6436,11 +6445,11 @@
       <c r="P33">
         <v>0</v>
       </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33" s="1">
+        <v>1</v>
       </c>
       <c r="S33">
         <v>0</v>
@@ -6454,11 +6463,11 @@
       <c r="V33">
         <v>0</v>
       </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
+      <c r="W33" s="1">
+        <v>1</v>
+      </c>
+      <c r="X33" s="1">
+        <v>1</v>
       </c>
       <c r="Y33">
         <v>0</v>
@@ -6472,11 +6481,11 @@
       <c r="AB33">
         <v>0</v>
       </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
+      <c r="AC33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="1">
+        <v>1</v>
       </c>
       <c r="AE33">
         <v>0</v>
@@ -6490,11 +6499,11 @@
       <c r="AH33">
         <v>0</v>
       </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-      <c r="AJ33">
-        <v>0</v>
+      <c r="AI33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ33" s="1">
+        <v>1</v>
       </c>
       <c r="AK33">
         <v>0</v>
@@ -6508,11 +6517,11 @@
       <c r="AN33">
         <v>0</v>
       </c>
-      <c r="AO33">
-        <v>0</v>
-      </c>
-      <c r="AP33">
-        <v>0</v>
+      <c r="AO33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP33" s="1">
+        <v>1</v>
       </c>
       <c r="AQ33">
         <v>0</v>
@@ -6526,11 +6535,11 @@
       <c r="AT33">
         <v>0</v>
       </c>
-      <c r="AU33">
-        <v>0</v>
-      </c>
-      <c r="AV33">
-        <v>0</v>
+      <c r="AU33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV33" s="1">
+        <v>1</v>
       </c>
       <c r="AW33">
         <v>0</v>
@@ -6544,11 +6553,11 @@
       <c r="AZ33">
         <v>0</v>
       </c>
-      <c r="BA33">
-        <v>0</v>
-      </c>
-      <c r="BB33">
-        <v>0</v>
+      <c r="BA33" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB33" s="1">
+        <v>1</v>
       </c>
       <c r="BC33">
         <v>0</v>
@@ -6565,40 +6574,40 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>0</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H34" s="1">
+        <v>1</v>
+      </c>
+      <c r="I34" s="1">
+        <v>1</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1</v>
+      </c>
+      <c r="K34" s="1">
+        <v>1</v>
+      </c>
+      <c r="L34" s="1">
+        <v>1</v>
+      </c>
+      <c r="M34" s="1">
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -6609,11 +6618,11 @@
       <c r="P34">
         <v>0</v>
       </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1">
+        <v>1</v>
       </c>
       <c r="S34">
         <v>0</v>
@@ -6627,11 +6636,11 @@
       <c r="V34">
         <v>0</v>
       </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
+      <c r="W34" s="1">
+        <v>1</v>
+      </c>
+      <c r="X34" s="1">
+        <v>1</v>
       </c>
       <c r="Y34">
         <v>0</v>
@@ -6645,11 +6654,11 @@
       <c r="AB34">
         <v>0</v>
       </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
+      <c r="AC34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="1">
+        <v>1</v>
       </c>
       <c r="AE34">
         <v>0</v>
@@ -6663,11 +6672,11 @@
       <c r="AH34">
         <v>0</v>
       </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-      <c r="AJ34">
-        <v>0</v>
+      <c r="AI34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ34" s="1">
+        <v>1</v>
       </c>
       <c r="AK34">
         <v>0</v>
@@ -6681,11 +6690,11 @@
       <c r="AN34">
         <v>0</v>
       </c>
-      <c r="AO34">
-        <v>0</v>
-      </c>
-      <c r="AP34">
-        <v>0</v>
+      <c r="AO34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP34" s="1">
+        <v>1</v>
       </c>
       <c r="AQ34">
         <v>0</v>
@@ -6699,11 +6708,11 @@
       <c r="AT34">
         <v>0</v>
       </c>
-      <c r="AU34">
-        <v>0</v>
-      </c>
-      <c r="AV34">
-        <v>0</v>
+      <c r="AU34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV34" s="1">
+        <v>1</v>
       </c>
       <c r="AW34">
         <v>0</v>
@@ -6717,11 +6726,11 @@
       <c r="AZ34">
         <v>0</v>
       </c>
-      <c r="BA34">
-        <v>0</v>
-      </c>
-      <c r="BB34">
-        <v>0</v>
+      <c r="BA34" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB34" s="1">
+        <v>1</v>
       </c>
       <c r="BC34">
         <v>0</v>
@@ -6738,40 +6747,40 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F35">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
+        <v>25</v>
+      </c>
+      <c r="H35" s="1">
+        <v>1</v>
+      </c>
+      <c r="I35" s="1">
+        <v>1</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1</v>
+      </c>
+      <c r="K35" s="1">
+        <v>1</v>
+      </c>
+      <c r="L35" s="1">
+        <v>1</v>
+      </c>
+      <c r="M35" s="1">
+        <v>1</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -6782,11 +6791,11 @@
       <c r="P35">
         <v>0</v>
       </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
+      <c r="Q35" s="1">
+        <v>1</v>
+      </c>
+      <c r="R35" s="1">
+        <v>1</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -6800,11 +6809,11 @@
       <c r="V35">
         <v>0</v>
       </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
+      <c r="W35" s="1">
+        <v>1</v>
+      </c>
+      <c r="X35" s="1">
+        <v>1</v>
       </c>
       <c r="Y35">
         <v>0</v>
@@ -6818,11 +6827,11 @@
       <c r="AB35">
         <v>0</v>
       </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
+      <c r="AC35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="1">
+        <v>1</v>
       </c>
       <c r="AE35">
         <v>0</v>
@@ -6836,11 +6845,11 @@
       <c r="AH35">
         <v>0</v>
       </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-      <c r="AJ35">
-        <v>0</v>
+      <c r="AI35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ35" s="1">
+        <v>1</v>
       </c>
       <c r="AK35">
         <v>0</v>
@@ -6854,11 +6863,11 @@
       <c r="AN35">
         <v>0</v>
       </c>
-      <c r="AO35">
-        <v>0</v>
-      </c>
-      <c r="AP35">
-        <v>0</v>
+      <c r="AO35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP35" s="1">
+        <v>1</v>
       </c>
       <c r="AQ35">
         <v>0</v>
@@ -6872,11 +6881,11 @@
       <c r="AT35">
         <v>0</v>
       </c>
-      <c r="AU35">
-        <v>0</v>
-      </c>
-      <c r="AV35">
-        <v>0</v>
+      <c r="AU35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV35" s="1">
+        <v>1</v>
       </c>
       <c r="AW35">
         <v>0</v>
@@ -6890,11 +6899,11 @@
       <c r="AZ35">
         <v>0</v>
       </c>
-      <c r="BA35">
-        <v>0</v>
-      </c>
-      <c r="BB35">
-        <v>0</v>
+      <c r="BA35" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB35" s="1">
+        <v>1</v>
       </c>
       <c r="BC35">
         <v>0</v>
@@ -6910,32 +6919,32 @@
       <c r="A36" s="1">
         <v>1</v>
       </c>
-      <c r="B36">
-        <v>0</v>
-      </c>
-      <c r="C36">
-        <v>0</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-      <c r="E36">
-        <v>0</v>
-      </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <v>0</v>
-      </c>
-      <c r="H36">
-        <v>0</v>
-      </c>
-      <c r="I36">
-        <v>0</v>
-      </c>
-      <c r="J36">
-        <v>0</v>
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
+      <c r="D36" s="1">
+        <v>1</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>1</v>
+      </c>
+      <c r="G36" s="1">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>1</v>
+      </c>
+      <c r="I36" s="1">
+        <v>1</v>
+      </c>
+      <c r="J36" s="3">
+        <v>22</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -6955,11 +6964,11 @@
       <c r="P36">
         <v>0</v>
       </c>
-      <c r="Q36">
-        <v>0</v>
-      </c>
-      <c r="R36">
-        <v>0</v>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
       </c>
       <c r="S36">
         <v>0</v>
@@ -6967,23 +6976,23 @@
       <c r="T36">
         <v>0</v>
       </c>
-      <c r="U36">
-        <v>0</v>
-      </c>
-      <c r="V36">
-        <v>0</v>
-      </c>
-      <c r="W36">
-        <v>0</v>
-      </c>
-      <c r="X36">
-        <v>0</v>
-      </c>
-      <c r="Y36">
-        <v>0</v>
-      </c>
-      <c r="Z36">
-        <v>0</v>
+      <c r="U36" s="1">
+        <v>1</v>
+      </c>
+      <c r="V36" s="1">
+        <v>1</v>
+      </c>
+      <c r="W36" s="1">
+        <v>1</v>
+      </c>
+      <c r="X36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>1</v>
       </c>
       <c r="AA36">
         <v>0</v>
@@ -6991,11 +7000,11 @@
       <c r="AB36">
         <v>0</v>
       </c>
-      <c r="AC36">
-        <v>0</v>
-      </c>
-      <c r="AD36">
-        <v>0</v>
+      <c r="AC36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>1</v>
       </c>
       <c r="AE36">
         <v>0</v>
@@ -7003,23 +7012,23 @@
       <c r="AF36">
         <v>0</v>
       </c>
-      <c r="AG36">
-        <v>0</v>
-      </c>
-      <c r="AH36">
-        <v>0</v>
-      </c>
-      <c r="AI36">
-        <v>0</v>
-      </c>
-      <c r="AJ36">
-        <v>0</v>
-      </c>
-      <c r="AK36">
-        <v>0</v>
-      </c>
-      <c r="AL36">
-        <v>0</v>
+      <c r="AG36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL36" s="1">
+        <v>1</v>
       </c>
       <c r="AM36">
         <v>0</v>
@@ -7027,11 +7036,11 @@
       <c r="AN36">
         <v>0</v>
       </c>
-      <c r="AO36">
-        <v>0</v>
-      </c>
-      <c r="AP36">
-        <v>0</v>
+      <c r="AO36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP36" s="1">
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>0</v>
@@ -7039,17 +7048,17 @@
       <c r="AR36">
         <v>0</v>
       </c>
-      <c r="AS36">
-        <v>0</v>
-      </c>
-      <c r="AT36">
-        <v>0</v>
-      </c>
-      <c r="AU36">
-        <v>0</v>
-      </c>
-      <c r="AV36">
-        <v>0</v>
+      <c r="AS36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV36" s="1">
+        <v>1</v>
       </c>
       <c r="AW36">
         <v>0</v>
@@ -7063,11 +7072,11 @@
       <c r="AZ36">
         <v>0</v>
       </c>
-      <c r="BA36">
-        <v>0</v>
-      </c>
-      <c r="BB36">
-        <v>0</v>
+      <c r="BA36" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB36" s="1">
+        <v>1</v>
       </c>
       <c r="BC36">
         <v>0</v>
@@ -7083,29 +7092,29 @@
       <c r="A37" s="1">
         <v>1</v>
       </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-      <c r="C37">
-        <v>0</v>
-      </c>
-      <c r="D37">
-        <v>0</v>
-      </c>
-      <c r="E37">
-        <v>0</v>
-      </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <v>0</v>
-      </c>
-      <c r="H37">
-        <v>0</v>
-      </c>
-      <c r="I37">
-        <v>0</v>
+      <c r="B37" s="1">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>1</v>
+      </c>
+      <c r="F37" s="1">
+        <v>1</v>
+      </c>
+      <c r="G37" s="1">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>1</v>
+      </c>
+      <c r="I37" s="1">
+        <v>1</v>
       </c>
       <c r="J37">
         <v>0</v>
@@ -7128,11 +7137,11 @@
       <c r="P37">
         <v>0</v>
       </c>
-      <c r="Q37">
-        <v>0</v>
-      </c>
-      <c r="R37">
-        <v>0</v>
+      <c r="Q37" s="1">
+        <v>1</v>
+      </c>
+      <c r="R37" s="1">
+        <v>1</v>
       </c>
       <c r="S37">
         <v>0</v>
@@ -7140,23 +7149,23 @@
       <c r="T37">
         <v>0</v>
       </c>
-      <c r="U37">
-        <v>0</v>
-      </c>
-      <c r="V37">
-        <v>0</v>
-      </c>
-      <c r="W37">
-        <v>0</v>
-      </c>
-      <c r="X37">
-        <v>0</v>
-      </c>
-      <c r="Y37">
-        <v>0</v>
-      </c>
-      <c r="Z37">
-        <v>0</v>
+      <c r="U37" s="1">
+        <v>1</v>
+      </c>
+      <c r="V37" s="1">
+        <v>1</v>
+      </c>
+      <c r="W37" s="1">
+        <v>1</v>
+      </c>
+      <c r="X37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="1">
+        <v>1</v>
       </c>
       <c r="AA37">
         <v>0</v>
@@ -7164,11 +7173,11 @@
       <c r="AB37">
         <v>0</v>
       </c>
-      <c r="AC37">
-        <v>0</v>
-      </c>
-      <c r="AD37">
-        <v>0</v>
+      <c r="AC37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="1">
+        <v>1</v>
       </c>
       <c r="AE37">
         <v>0</v>
@@ -7176,23 +7185,23 @@
       <c r="AF37">
         <v>0</v>
       </c>
-      <c r="AG37">
-        <v>0</v>
-      </c>
-      <c r="AH37">
-        <v>0</v>
-      </c>
-      <c r="AI37">
-        <v>0</v>
-      </c>
-      <c r="AJ37">
-        <v>0</v>
-      </c>
-      <c r="AK37">
-        <v>0</v>
-      </c>
-      <c r="AL37">
-        <v>0</v>
+      <c r="AG37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>1</v>
       </c>
       <c r="AM37">
         <v>0</v>
@@ -7200,11 +7209,11 @@
       <c r="AN37">
         <v>0</v>
       </c>
-      <c r="AO37">
-        <v>0</v>
-      </c>
-      <c r="AP37">
-        <v>0</v>
+      <c r="AO37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP37" s="1">
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>0</v>
@@ -7212,17 +7221,17 @@
       <c r="AR37">
         <v>0</v>
       </c>
-      <c r="AS37">
-        <v>0</v>
-      </c>
-      <c r="AT37">
-        <v>0</v>
-      </c>
-      <c r="AU37">
-        <v>0</v>
-      </c>
-      <c r="AV37">
-        <v>0</v>
+      <c r="AS37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV37" s="1">
+        <v>1</v>
       </c>
       <c r="AW37">
         <v>0</v>
@@ -7236,11 +7245,11 @@
       <c r="AZ37">
         <v>0</v>
       </c>
-      <c r="BA37">
-        <v>0</v>
-      </c>
-      <c r="BB37">
-        <v>0</v>
+      <c r="BA37" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB37" s="1">
+        <v>1</v>
       </c>
       <c r="BC37">
         <v>0</v>
@@ -7322,8 +7331,8 @@
       <c r="W38">
         <v>0</v>
       </c>
-      <c r="X38">
-        <v>0</v>
+      <c r="X38" s="3">
+        <v>22</v>
       </c>
       <c r="Y38">
         <v>0</v>
@@ -7358,8 +7367,8 @@
       <c r="AI38">
         <v>0</v>
       </c>
-      <c r="AJ38">
-        <v>0</v>
+      <c r="AJ38" s="3">
+        <v>22</v>
       </c>
       <c r="AK38">
         <v>0</v>
@@ -7409,11 +7418,11 @@
       <c r="AZ38">
         <v>0</v>
       </c>
-      <c r="BA38">
-        <v>0</v>
-      </c>
-      <c r="BB38">
-        <v>0</v>
+      <c r="BA38" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB38" s="1">
+        <v>1</v>
       </c>
       <c r="BC38">
         <v>0</v>
@@ -7582,11 +7591,11 @@
       <c r="AZ39">
         <v>0</v>
       </c>
-      <c r="BA39">
-        <v>0</v>
-      </c>
-      <c r="BB39">
-        <v>0</v>
+      <c r="BA39" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB39" s="1">
+        <v>1</v>
       </c>
       <c r="BC39">
         <v>0</v>
@@ -7755,11 +7764,11 @@
       <c r="AZ40">
         <v>0</v>
       </c>
-      <c r="BA40">
-        <v>0</v>
-      </c>
-      <c r="BB40">
-        <v>0</v>
+      <c r="BA40" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB40" s="1">
+        <v>1</v>
       </c>
       <c r="BC40">
         <v>0</v>
@@ -7775,8 +7784,8 @@
       <c r="A41" s="1">
         <v>1</v>
       </c>
-      <c r="B41">
-        <v>0</v>
+      <c r="B41" s="3">
+        <v>22</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -7925,14 +7934,14 @@
       <c r="AY41">
         <v>0</v>
       </c>
-      <c r="AZ41">
-        <v>0</v>
-      </c>
-      <c r="BA41">
-        <v>0</v>
-      </c>
-      <c r="BB41">
-        <v>0</v>
+      <c r="AZ41" s="3">
+        <v>22</v>
+      </c>
+      <c r="BA41" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB41" s="1">
+        <v>1</v>
       </c>
       <c r="BC41">
         <v>0</v>
@@ -7948,20 +7957,20 @@
       <c r="A42" s="1">
         <v>1</v>
       </c>
-      <c r="B42">
-        <v>0</v>
-      </c>
-      <c r="C42">
-        <v>0</v>
-      </c>
-      <c r="D42">
-        <v>0</v>
-      </c>
-      <c r="E42">
-        <v>0</v>
-      </c>
-      <c r="F42">
-        <v>0</v>
+      <c r="B42" s="1">
+        <v>1</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>1</v>
+      </c>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>1</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -7969,23 +7978,23 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42">
-        <v>0</v>
-      </c>
-      <c r="J42">
-        <v>0</v>
-      </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
-        <v>0</v>
+      <c r="I42" s="1">
+        <v>1</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1</v>
+      </c>
+      <c r="K42" s="1">
+        <v>1</v>
+      </c>
+      <c r="L42" s="1">
+        <v>1</v>
+      </c>
+      <c r="M42" s="1">
+        <v>1</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -7993,11 +8002,11 @@
       <c r="P42">
         <v>0</v>
       </c>
-      <c r="Q42">
-        <v>0</v>
-      </c>
-      <c r="R42">
-        <v>0</v>
+      <c r="Q42" s="1">
+        <v>1</v>
+      </c>
+      <c r="R42" s="1">
+        <v>1</v>
       </c>
       <c r="S42">
         <v>0</v>
@@ -8005,23 +8014,23 @@
       <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42">
-        <v>0</v>
-      </c>
-      <c r="V42">
-        <v>0</v>
-      </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
-        <v>0</v>
-      </c>
-      <c r="Y42">
-        <v>0</v>
-      </c>
-      <c r="Z42">
-        <v>0</v>
+      <c r="U42" s="1">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1">
+        <v>1</v>
+      </c>
+      <c r="W42" s="1">
+        <v>1</v>
+      </c>
+      <c r="X42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z42" s="1">
+        <v>1</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -8029,11 +8038,11 @@
       <c r="AB42">
         <v>0</v>
       </c>
-      <c r="AC42">
-        <v>0</v>
-      </c>
-      <c r="AD42">
-        <v>0</v>
+      <c r="AC42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1</v>
       </c>
       <c r="AE42">
         <v>0</v>
@@ -8041,23 +8050,23 @@
       <c r="AF42">
         <v>0</v>
       </c>
-      <c r="AG42">
-        <v>0</v>
-      </c>
-      <c r="AH42">
-        <v>0</v>
-      </c>
-      <c r="AI42">
-        <v>0</v>
-      </c>
-      <c r="AJ42">
-        <v>0</v>
-      </c>
-      <c r="AK42">
-        <v>0</v>
-      </c>
-      <c r="AL42">
-        <v>0</v>
+      <c r="AG42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL42" s="1">
+        <v>1</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -8065,47 +8074,47 @@
       <c r="AN42">
         <v>0</v>
       </c>
-      <c r="AO42">
-        <v>0</v>
-      </c>
-      <c r="AP42">
-        <v>0</v>
-      </c>
-      <c r="AQ42">
-        <v>0</v>
-      </c>
-      <c r="AR42">
-        <v>0</v>
-      </c>
-      <c r="AS42">
-        <v>0</v>
-      </c>
-      <c r="AT42">
-        <v>0</v>
-      </c>
-      <c r="AU42">
-        <v>0</v>
-      </c>
-      <c r="AV42">
-        <v>0</v>
-      </c>
-      <c r="AW42">
-        <v>0</v>
-      </c>
-      <c r="AX42">
-        <v>0</v>
-      </c>
-      <c r="AY42">
-        <v>0</v>
-      </c>
-      <c r="AZ42">
-        <v>0</v>
-      </c>
-      <c r="BA42">
-        <v>0</v>
-      </c>
-      <c r="BB42">
-        <v>0</v>
+      <c r="AO42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY42" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA42" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB42" s="1">
+        <v>1</v>
       </c>
       <c r="BC42">
         <v>0</v>
@@ -8121,20 +8130,20 @@
       <c r="A43" s="1">
         <v>1</v>
       </c>
-      <c r="B43">
-        <v>0</v>
-      </c>
-      <c r="C43">
-        <v>0</v>
-      </c>
-      <c r="D43">
-        <v>0</v>
-      </c>
-      <c r="E43">
-        <v>0</v>
-      </c>
-      <c r="F43">
-        <v>0</v>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -8142,23 +8151,23 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43">
-        <v>0</v>
-      </c>
-      <c r="J43">
-        <v>0</v>
-      </c>
-      <c r="K43">
-        <v>0</v>
-      </c>
-      <c r="L43">
-        <v>0</v>
-      </c>
-      <c r="M43">
-        <v>0</v>
-      </c>
-      <c r="N43">
-        <v>0</v>
+      <c r="I43" s="1">
+        <v>1</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1</v>
+      </c>
+      <c r="L43" s="1">
+        <v>1</v>
+      </c>
+      <c r="M43" s="1">
+        <v>1</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -8166,11 +8175,11 @@
       <c r="P43">
         <v>0</v>
       </c>
-      <c r="Q43">
-        <v>0</v>
-      </c>
-      <c r="R43">
-        <v>0</v>
+      <c r="Q43" s="1">
+        <v>1</v>
+      </c>
+      <c r="R43" s="1">
+        <v>1</v>
       </c>
       <c r="S43">
         <v>0</v>
@@ -8178,23 +8187,23 @@
       <c r="T43">
         <v>0</v>
       </c>
-      <c r="U43">
-        <v>0</v>
-      </c>
-      <c r="V43">
-        <v>0</v>
-      </c>
-      <c r="W43">
-        <v>0</v>
-      </c>
-      <c r="X43">
-        <v>0</v>
-      </c>
-      <c r="Y43">
-        <v>0</v>
-      </c>
-      <c r="Z43">
-        <v>0</v>
+      <c r="U43" s="1">
+        <v>1</v>
+      </c>
+      <c r="V43" s="1">
+        <v>1</v>
+      </c>
+      <c r="W43" s="1">
+        <v>1</v>
+      </c>
+      <c r="X43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z43" s="1">
+        <v>1</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -8202,11 +8211,11 @@
       <c r="AB43">
         <v>0</v>
       </c>
-      <c r="AC43">
-        <v>0</v>
-      </c>
-      <c r="AD43">
-        <v>0</v>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
       </c>
       <c r="AE43">
         <v>0</v>
@@ -8214,23 +8223,23 @@
       <c r="AF43">
         <v>0</v>
       </c>
-      <c r="AG43">
-        <v>0</v>
-      </c>
-      <c r="AH43">
-        <v>0</v>
-      </c>
-      <c r="AI43">
-        <v>0</v>
-      </c>
-      <c r="AJ43">
-        <v>0</v>
-      </c>
-      <c r="AK43">
-        <v>0</v>
-      </c>
-      <c r="AL43">
-        <v>0</v>
+      <c r="AG43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="1">
+        <v>1</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -8238,47 +8247,47 @@
       <c r="AN43">
         <v>0</v>
       </c>
-      <c r="AO43">
-        <v>0</v>
-      </c>
-      <c r="AP43">
-        <v>0</v>
-      </c>
-      <c r="AQ43">
-        <v>0</v>
-      </c>
-      <c r="AR43">
-        <v>0</v>
-      </c>
-      <c r="AS43">
-        <v>0</v>
-      </c>
-      <c r="AT43">
-        <v>0</v>
-      </c>
-      <c r="AU43">
-        <v>0</v>
-      </c>
-      <c r="AV43">
-        <v>0</v>
-      </c>
-      <c r="AW43">
-        <v>0</v>
-      </c>
-      <c r="AX43">
-        <v>0</v>
-      </c>
-      <c r="AY43">
-        <v>0</v>
-      </c>
-      <c r="AZ43">
-        <v>0</v>
-      </c>
-      <c r="BA43">
-        <v>0</v>
-      </c>
-      <c r="BB43">
-        <v>0</v>
+      <c r="AO43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA43" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB43" s="1">
+        <v>1</v>
       </c>
       <c r="BC43">
         <v>0</v>
@@ -8294,20 +8303,20 @@
       <c r="A44" s="1">
         <v>1</v>
       </c>
-      <c r="B44">
-        <v>0</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
-      </c>
-      <c r="D44">
-        <v>0</v>
-      </c>
-      <c r="E44">
-        <v>0</v>
-      </c>
-      <c r="F44">
-        <v>0</v>
+      <c r="B44" s="1">
+        <v>1</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>1</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -8321,11 +8330,11 @@
       <c r="J44">
         <v>0</v>
       </c>
-      <c r="K44">
-        <v>0</v>
-      </c>
-      <c r="L44">
-        <v>0</v>
+      <c r="K44" s="1">
+        <v>1</v>
+      </c>
+      <c r="L44" s="1">
+        <v>1</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -8339,11 +8348,11 @@
       <c r="P44">
         <v>0</v>
       </c>
-      <c r="Q44">
-        <v>0</v>
-      </c>
-      <c r="R44">
-        <v>0</v>
+      <c r="Q44" s="1">
+        <v>1</v>
+      </c>
+      <c r="R44" s="1">
+        <v>1</v>
       </c>
       <c r="S44">
         <v>0</v>
@@ -8357,11 +8366,11 @@
       <c r="V44">
         <v>0</v>
       </c>
-      <c r="W44">
-        <v>0</v>
-      </c>
-      <c r="X44">
-        <v>0</v>
+      <c r="W44" s="1">
+        <v>1</v>
+      </c>
+      <c r="X44" s="1">
+        <v>1</v>
       </c>
       <c r="Y44">
         <v>0</v>
@@ -8375,11 +8384,11 @@
       <c r="AB44">
         <v>0</v>
       </c>
-      <c r="AC44">
-        <v>0</v>
-      </c>
-      <c r="AD44">
-        <v>0</v>
+      <c r="AC44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="1">
+        <v>1</v>
       </c>
       <c r="AE44">
         <v>0</v>
@@ -8393,11 +8402,11 @@
       <c r="AH44">
         <v>0</v>
       </c>
-      <c r="AI44">
-        <v>0</v>
-      </c>
-      <c r="AJ44">
-        <v>0</v>
+      <c r="AI44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ44" s="1">
+        <v>1</v>
       </c>
       <c r="AK44">
         <v>0</v>
@@ -8411,47 +8420,47 @@
       <c r="AN44">
         <v>0</v>
       </c>
-      <c r="AO44">
-        <v>0</v>
-      </c>
-      <c r="AP44">
-        <v>0</v>
-      </c>
-      <c r="AQ44">
-        <v>0</v>
-      </c>
-      <c r="AR44">
-        <v>0</v>
-      </c>
-      <c r="AS44">
-        <v>0</v>
-      </c>
-      <c r="AT44">
-        <v>0</v>
-      </c>
-      <c r="AU44">
-        <v>0</v>
-      </c>
-      <c r="AV44">
-        <v>0</v>
-      </c>
-      <c r="AW44">
-        <v>0</v>
-      </c>
-      <c r="AX44">
-        <v>0</v>
-      </c>
-      <c r="AY44">
-        <v>0</v>
-      </c>
-      <c r="AZ44">
-        <v>0</v>
-      </c>
-      <c r="BA44">
-        <v>0</v>
-      </c>
-      <c r="BB44">
-        <v>0</v>
+      <c r="AO44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY44" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA44" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB44" s="1">
+        <v>1</v>
       </c>
       <c r="BC44">
         <v>0</v>
@@ -8467,20 +8476,20 @@
       <c r="A45" s="1">
         <v>1</v>
       </c>
-      <c r="B45">
-        <v>0</v>
-      </c>
-      <c r="C45">
-        <v>0</v>
-      </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-      <c r="E45">
-        <v>0</v>
-      </c>
-      <c r="F45">
-        <v>0</v>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="1">
+        <v>1</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -8494,11 +8503,11 @@
       <c r="J45">
         <v>0</v>
       </c>
-      <c r="K45">
-        <v>0</v>
-      </c>
-      <c r="L45">
-        <v>0</v>
+      <c r="K45" s="1">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1">
+        <v>1</v>
       </c>
       <c r="M45">
         <v>0</v>
@@ -8512,11 +8521,11 @@
       <c r="P45">
         <v>0</v>
       </c>
-      <c r="Q45">
-        <v>0</v>
-      </c>
-      <c r="R45">
-        <v>0</v>
+      <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
       </c>
       <c r="S45">
         <v>0</v>
@@ -8530,11 +8539,11 @@
       <c r="V45">
         <v>0</v>
       </c>
-      <c r="W45">
-        <v>0</v>
-      </c>
-      <c r="X45">
-        <v>0</v>
+      <c r="W45" s="1">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1">
+        <v>1</v>
       </c>
       <c r="Y45">
         <v>0</v>
@@ -8548,11 +8557,11 @@
       <c r="AB45">
         <v>0</v>
       </c>
-      <c r="AC45">
-        <v>0</v>
-      </c>
-      <c r="AD45">
-        <v>0</v>
+      <c r="AC45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>1</v>
       </c>
       <c r="AE45">
         <v>0</v>
@@ -8566,11 +8575,11 @@
       <c r="AH45">
         <v>0</v>
       </c>
-      <c r="AI45">
-        <v>0</v>
-      </c>
-      <c r="AJ45">
-        <v>0</v>
+      <c r="AI45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ45" s="1">
+        <v>1</v>
       </c>
       <c r="AK45">
         <v>0</v>
@@ -8584,47 +8593,47 @@
       <c r="AN45">
         <v>0</v>
       </c>
-      <c r="AO45">
-        <v>0</v>
-      </c>
-      <c r="AP45">
-        <v>0</v>
-      </c>
-      <c r="AQ45">
-        <v>0</v>
-      </c>
-      <c r="AR45">
-        <v>0</v>
-      </c>
-      <c r="AS45">
-        <v>0</v>
-      </c>
-      <c r="AT45">
-        <v>0</v>
-      </c>
-      <c r="AU45">
-        <v>0</v>
-      </c>
-      <c r="AV45">
-        <v>0</v>
-      </c>
-      <c r="AW45">
-        <v>0</v>
-      </c>
-      <c r="AX45">
-        <v>0</v>
-      </c>
-      <c r="AY45">
-        <v>0</v>
-      </c>
-      <c r="AZ45">
-        <v>0</v>
-      </c>
-      <c r="BA45">
-        <v>0</v>
-      </c>
-      <c r="BB45">
-        <v>0</v>
+      <c r="AO45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY45" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BA45" s="1">
+        <v>1</v>
+      </c>
+      <c r="BB45" s="1">
+        <v>1</v>
       </c>
       <c r="BC45">
         <v>0</v>
@@ -8655,11 +8664,11 @@
       <c r="F46" s="1">
         <v>1</v>
       </c>
-      <c r="G46" s="1">
-        <v>1</v>
-      </c>
-      <c r="H46" s="1">
-        <v>1</v>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0</v>
       </c>
       <c r="I46">
         <v>0</v>
@@ -8667,14 +8676,14 @@
       <c r="J46">
         <v>0</v>
       </c>
-      <c r="K46">
-        <v>0</v>
-      </c>
-      <c r="L46">
-        <v>0</v>
-      </c>
-      <c r="M46">
-        <v>0</v>
+      <c r="K46" s="1">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1">
+        <v>1</v>
+      </c>
+      <c r="M46" s="3">
+        <v>22</v>
       </c>
       <c r="N46">
         <v>0</v>
@@ -8685,11 +8694,11 @@
       <c r="P46">
         <v>0</v>
       </c>
-      <c r="Q46">
-        <v>0</v>
-      </c>
-      <c r="R46">
-        <v>0</v>
+      <c r="Q46" s="1">
+        <v>1</v>
+      </c>
+      <c r="R46" s="1">
+        <v>1</v>
       </c>
       <c r="S46">
         <v>0</v>
@@ -8700,17 +8709,17 @@
       <c r="U46">
         <v>0</v>
       </c>
-      <c r="V46">
-        <v>0</v>
-      </c>
-      <c r="W46">
-        <v>0</v>
-      </c>
-      <c r="X46">
-        <v>0</v>
-      </c>
-      <c r="Y46">
-        <v>0</v>
+      <c r="V46" s="3">
+        <v>22</v>
+      </c>
+      <c r="W46" s="1">
+        <v>1</v>
+      </c>
+      <c r="X46" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y46" s="3">
+        <v>22</v>
       </c>
       <c r="Z46">
         <v>0</v>
@@ -8721,11 +8730,11 @@
       <c r="AB46">
         <v>0</v>
       </c>
-      <c r="AC46">
-        <v>0</v>
-      </c>
-      <c r="AD46">
-        <v>0</v>
+      <c r="AC46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>1</v>
       </c>
       <c r="AE46">
         <v>0</v>
@@ -8736,17 +8745,17 @@
       <c r="AG46">
         <v>0</v>
       </c>
-      <c r="AH46">
-        <v>0</v>
-      </c>
-      <c r="AI46">
-        <v>0</v>
-      </c>
-      <c r="AJ46">
-        <v>0</v>
-      </c>
-      <c r="AK46">
-        <v>0</v>
+      <c r="AH46" s="3">
+        <v>22</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="3">
+        <v>22</v>
       </c>
       <c r="AL46">
         <v>0</v>
@@ -8757,35 +8766,35 @@
       <c r="AN46">
         <v>0</v>
       </c>
-      <c r="AO46">
-        <v>0</v>
-      </c>
-      <c r="AP46">
-        <v>0</v>
-      </c>
-      <c r="AQ46">
-        <v>0</v>
-      </c>
-      <c r="AR46">
-        <v>0</v>
-      </c>
-      <c r="AS46">
-        <v>0</v>
-      </c>
-      <c r="AT46">
-        <v>0</v>
-      </c>
-      <c r="AU46">
-        <v>0</v>
-      </c>
-      <c r="AV46">
-        <v>0</v>
-      </c>
-      <c r="AW46">
-        <v>0</v>
-      </c>
-      <c r="AX46">
-        <v>0</v>
+      <c r="AO46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX46" s="1">
+        <v>1</v>
       </c>
       <c r="AY46" s="1">
         <v>1</v>
@@ -8799,11 +8808,11 @@
       <c r="BB46" s="1">
         <v>1</v>
       </c>
-      <c r="BC46" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD46" s="1">
-        <v>1</v>
+      <c r="BC46">
+        <v>0</v>
+      </c>
+      <c r="BD46">
+        <v>0</v>
       </c>
       <c r="BE46" s="1">
         <v>1</v>
@@ -8834,131 +8843,131 @@
       <c r="H47" s="1">
         <v>1</v>
       </c>
-      <c r="I47">
-        <v>0</v>
-      </c>
-      <c r="J47">
-        <v>0</v>
-      </c>
-      <c r="K47">
-        <v>0</v>
-      </c>
-      <c r="L47">
-        <v>0</v>
-      </c>
-      <c r="M47">
-        <v>0</v>
-      </c>
-      <c r="N47">
-        <v>0</v>
-      </c>
-      <c r="O47">
-        <v>0</v>
-      </c>
-      <c r="P47">
-        <v>0</v>
-      </c>
-      <c r="Q47">
-        <v>0</v>
-      </c>
-      <c r="R47">
-        <v>0</v>
-      </c>
-      <c r="S47">
-        <v>0</v>
-      </c>
-      <c r="T47">
-        <v>0</v>
-      </c>
-      <c r="U47">
-        <v>0</v>
-      </c>
-      <c r="V47">
-        <v>0</v>
-      </c>
-      <c r="W47">
-        <v>0</v>
-      </c>
-      <c r="X47">
-        <v>0</v>
-      </c>
-      <c r="Y47">
-        <v>0</v>
-      </c>
-      <c r="Z47">
-        <v>0</v>
-      </c>
-      <c r="AA47">
-        <v>0</v>
-      </c>
-      <c r="AB47">
-        <v>0</v>
-      </c>
-      <c r="AC47">
-        <v>0</v>
-      </c>
-      <c r="AD47">
-        <v>0</v>
-      </c>
-      <c r="AE47">
-        <v>0</v>
-      </c>
-      <c r="AF47">
-        <v>0</v>
-      </c>
-      <c r="AG47">
-        <v>0</v>
-      </c>
-      <c r="AH47">
-        <v>0</v>
-      </c>
-      <c r="AI47">
-        <v>0</v>
-      </c>
-      <c r="AJ47">
-        <v>0</v>
-      </c>
-      <c r="AK47">
-        <v>0</v>
-      </c>
-      <c r="AL47">
-        <v>0</v>
-      </c>
-      <c r="AM47">
-        <v>0</v>
-      </c>
-      <c r="AN47">
-        <v>0</v>
-      </c>
-      <c r="AO47">
-        <v>0</v>
-      </c>
-      <c r="AP47">
-        <v>0</v>
-      </c>
-      <c r="AQ47">
-        <v>0</v>
-      </c>
-      <c r="AR47">
-        <v>0</v>
-      </c>
-      <c r="AS47">
-        <v>0</v>
-      </c>
-      <c r="AT47">
-        <v>0</v>
-      </c>
-      <c r="AU47">
-        <v>0</v>
-      </c>
-      <c r="AV47">
-        <v>0</v>
-      </c>
-      <c r="AW47">
-        <v>0</v>
-      </c>
-      <c r="AX47">
-        <v>0</v>
+      <c r="I47" s="1">
+        <v>1</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1</v>
+      </c>
+      <c r="K47" s="1">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1">
+        <v>1</v>
+      </c>
+      <c r="M47" s="1">
+        <v>1</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>1</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>1</v>
+      </c>
+      <c r="R47" s="1">
+        <v>1</v>
+      </c>
+      <c r="S47" s="1">
+        <v>1</v>
+      </c>
+      <c r="T47" s="1">
+        <v>1</v>
+      </c>
+      <c r="U47" s="1">
+        <v>1</v>
+      </c>
+      <c r="V47" s="1">
+        <v>1</v>
+      </c>
+      <c r="W47" s="1">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX47" s="1">
+        <v>1</v>
       </c>
       <c r="AY47" s="1">
         <v>1</v>
@@ -8972,11 +8981,11 @@
       <c r="BB47" s="1">
         <v>1</v>
       </c>
-      <c r="BC47" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD47" s="1">
-        <v>1</v>
+      <c r="BC47">
+        <v>0</v>
+      </c>
+      <c r="BD47">
+        <v>0</v>
       </c>
       <c r="BE47" s="1">
         <v>1</v>
@@ -9007,131 +9016,131 @@
       <c r="H48" s="1">
         <v>1</v>
       </c>
-      <c r="I48">
-        <v>0</v>
-      </c>
-      <c r="J48">
-        <v>0</v>
-      </c>
-      <c r="K48">
-        <v>0</v>
-      </c>
-      <c r="L48">
-        <v>0</v>
-      </c>
-      <c r="M48">
-        <v>0</v>
-      </c>
-      <c r="N48">
-        <v>0</v>
-      </c>
-      <c r="O48">
-        <v>0</v>
-      </c>
-      <c r="P48">
-        <v>0</v>
-      </c>
-      <c r="Q48">
-        <v>0</v>
-      </c>
-      <c r="R48">
-        <v>0</v>
-      </c>
-      <c r="S48">
-        <v>0</v>
-      </c>
-      <c r="T48">
-        <v>0</v>
-      </c>
-      <c r="U48">
-        <v>0</v>
-      </c>
-      <c r="V48">
-        <v>0</v>
-      </c>
-      <c r="W48">
-        <v>0</v>
-      </c>
-      <c r="X48">
-        <v>0</v>
-      </c>
-      <c r="Y48">
-        <v>0</v>
-      </c>
-      <c r="Z48">
-        <v>0</v>
-      </c>
-      <c r="AA48">
-        <v>0</v>
-      </c>
-      <c r="AB48">
-        <v>0</v>
-      </c>
-      <c r="AC48">
-        <v>0</v>
-      </c>
-      <c r="AD48">
-        <v>0</v>
-      </c>
-      <c r="AE48">
-        <v>0</v>
-      </c>
-      <c r="AF48">
-        <v>0</v>
-      </c>
-      <c r="AG48">
-        <v>0</v>
-      </c>
-      <c r="AH48">
-        <v>0</v>
-      </c>
-      <c r="AI48">
-        <v>0</v>
-      </c>
-      <c r="AJ48">
-        <v>0</v>
-      </c>
-      <c r="AK48">
-        <v>0</v>
-      </c>
-      <c r="AL48">
-        <v>0</v>
-      </c>
-      <c r="AM48">
-        <v>0</v>
-      </c>
-      <c r="AN48">
-        <v>0</v>
-      </c>
-      <c r="AO48">
-        <v>0</v>
-      </c>
-      <c r="AP48">
-        <v>0</v>
-      </c>
-      <c r="AQ48">
-        <v>0</v>
-      </c>
-      <c r="AR48">
-        <v>0</v>
-      </c>
-      <c r="AS48">
-        <v>0</v>
-      </c>
-      <c r="AT48">
-        <v>0</v>
-      </c>
-      <c r="AU48">
-        <v>0</v>
-      </c>
-      <c r="AV48">
-        <v>0</v>
-      </c>
-      <c r="AW48">
-        <v>0</v>
-      </c>
-      <c r="AX48">
-        <v>0</v>
+      <c r="I48" s="1">
+        <v>1</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1</v>
+      </c>
+      <c r="K48" s="1">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1">
+        <v>1</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>1</v>
+      </c>
+      <c r="R48" s="1">
+        <v>1</v>
+      </c>
+      <c r="S48" s="1">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1">
+        <v>1</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+      <c r="V48" s="1">
+        <v>1</v>
+      </c>
+      <c r="W48" s="1">
+        <v>1</v>
+      </c>
+      <c r="X48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW48" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX48" s="1">
+        <v>1</v>
       </c>
       <c r="AY48" s="1">
         <v>1</v>
@@ -9145,11 +9154,11 @@
       <c r="BB48" s="1">
         <v>1</v>
       </c>
-      <c r="BC48" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD48" s="1">
-        <v>1</v>
+      <c r="BC48">
+        <v>0</v>
+      </c>
+      <c r="BD48">
+        <v>0</v>
       </c>
       <c r="BE48" s="1">
         <v>1</v>
@@ -9159,26 +9168,26 @@
       <c r="A49" s="1">
         <v>1</v>
       </c>
-      <c r="B49" s="1">
-        <v>1</v>
-      </c>
-      <c r="C49" s="1">
-        <v>1</v>
-      </c>
-      <c r="D49" s="1">
-        <v>1</v>
-      </c>
-      <c r="E49" s="1">
-        <v>1</v>
-      </c>
-      <c r="F49" s="1">
-        <v>1</v>
-      </c>
-      <c r="G49" s="1">
-        <v>1</v>
-      </c>
-      <c r="H49" s="1">
-        <v>1</v>
+      <c r="B49">
+        <v>0</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
       </c>
       <c r="I49">
         <v>0</v>
@@ -9306,23 +9315,23 @@
       <c r="AX49">
         <v>0</v>
       </c>
-      <c r="AY49" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC49" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD49" s="1">
-        <v>1</v>
+      <c r="AY49">
+        <v>0</v>
+      </c>
+      <c r="AZ49">
+        <v>0</v>
+      </c>
+      <c r="BA49">
+        <v>0</v>
+      </c>
+      <c r="BB49">
+        <v>0</v>
+      </c>
+      <c r="BC49">
+        <v>0</v>
+      </c>
+      <c r="BD49">
+        <v>0</v>
       </c>
       <c r="BE49" s="1">
         <v>1</v>
@@ -9332,26 +9341,26 @@
       <c r="A50" s="1">
         <v>1</v>
       </c>
-      <c r="B50" s="1">
-        <v>1</v>
-      </c>
-      <c r="C50" s="1">
-        <v>1</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>1</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-      <c r="G50" s="1">
-        <v>1</v>
-      </c>
-      <c r="H50" s="1">
-        <v>1</v>
+      <c r="B50" s="2">
+        <v>26</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50">
+        <v>0</v>
+      </c>
+      <c r="F50">
+        <v>0</v>
+      </c>
+      <c r="G50">
+        <v>0</v>
+      </c>
+      <c r="H50">
+        <v>0</v>
       </c>
       <c r="I50">
         <v>0</v>
@@ -9371,8 +9380,8 @@
       <c r="N50">
         <v>0</v>
       </c>
-      <c r="O50">
-        <v>0</v>
+      <c r="O50" s="3">
+        <v>22</v>
       </c>
       <c r="P50">
         <v>0</v>
@@ -9428,8 +9437,8 @@
       <c r="AG50">
         <v>0</v>
       </c>
-      <c r="AH50">
-        <v>0</v>
+      <c r="AH50" s="3">
+        <v>22</v>
       </c>
       <c r="AI50">
         <v>0</v>
@@ -9479,23 +9488,23 @@
       <c r="AX50">
         <v>0</v>
       </c>
-      <c r="AY50" s="1">
-        <v>1</v>
-      </c>
-      <c r="AZ50" s="1">
-        <v>1</v>
-      </c>
-      <c r="BA50" s="1">
-        <v>1</v>
-      </c>
-      <c r="BB50" s="1">
-        <v>1</v>
-      </c>
-      <c r="BC50" s="1">
-        <v>1</v>
-      </c>
-      <c r="BD50" s="1">
-        <v>1</v>
+      <c r="AY50">
+        <v>0</v>
+      </c>
+      <c r="AZ50">
+        <v>0</v>
+      </c>
+      <c r="BA50">
+        <v>0</v>
+      </c>
+      <c r="BB50">
+        <v>0</v>
+      </c>
+      <c r="BC50">
+        <v>0</v>
+      </c>
+      <c r="BD50" s="3">
+        <v>22</v>
       </c>
       <c r="BE50" s="1">
         <v>1</v>
@@ -9672,6 +9681,11 @@
       </c>
       <c r="BE51" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:57" x14ac:dyDescent="0.25">
+      <c r="AN56" s="3">
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Base/TileMap/Formatting/Level4.xlsx
+++ b/Base/TileMap/Formatting/Level4.xlsx
@@ -14,7 +14,8 @@
   <sheets>
     <sheet name="Level4" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -164,7 +165,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -362,6 +363,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="10">
     <border>
@@ -523,11 +536,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="17" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -849,10 +864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BE56"/>
+  <dimension ref="A1:BI56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K32" sqref="K32"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="BJ23" sqref="BJ23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1410,91 +1425,91 @@
       <c r="J4">
         <v>0</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+      <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>0</v>
+      </c>
+      <c r="M4" s="5">
+        <v>0</v>
+      </c>
+      <c r="N4" s="5">
+        <v>0</v>
+      </c>
+      <c r="O4" s="5">
+        <v>0</v>
+      </c>
+      <c r="P4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>0</v>
+      </c>
+      <c r="R4" s="5">
+        <v>0</v>
+      </c>
+      <c r="S4" s="5">
+        <v>0</v>
+      </c>
+      <c r="T4" s="5">
+        <v>0</v>
+      </c>
+      <c r="U4" s="5">
+        <v>0</v>
+      </c>
+      <c r="V4" s="5">
+        <v>0</v>
+      </c>
+      <c r="W4" s="5">
+        <v>0</v>
+      </c>
+      <c r="X4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="5">
         <v>0</v>
       </c>
       <c r="AN4">
@@ -1926,8 +1941,8 @@
       <c r="I7">
         <v>0</v>
       </c>
-      <c r="J7">
-        <v>0</v>
+      <c r="J7" s="3">
+        <v>22</v>
       </c>
       <c r="K7" s="1">
         <v>1</v>
@@ -2410,7 +2425,7 @@
       <c r="BC9">
         <v>0</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" s="5">
         <v>0</v>
       </c>
       <c r="BE9" s="1">
@@ -2442,11 +2457,11 @@
       <c r="H10">
         <v>0</v>
       </c>
-      <c r="I10" s="1">
-        <v>1</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>1</v>
@@ -2454,11 +2469,11 @@
       <c r="L10" s="1">
         <v>1</v>
       </c>
-      <c r="M10" s="1">
-        <v>1</v>
-      </c>
-      <c r="N10" s="1">
-        <v>1</v>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -2478,11 +2493,11 @@
       <c r="T10">
         <v>0</v>
       </c>
-      <c r="U10" s="1">
-        <v>1</v>
-      </c>
-      <c r="V10" s="1">
-        <v>1</v>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
       </c>
       <c r="W10" s="1">
         <v>1</v>
@@ -2490,11 +2505,11 @@
       <c r="X10" s="1">
         <v>1</v>
       </c>
-      <c r="Y10" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z10" s="1">
-        <v>1</v>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
       </c>
       <c r="AA10">
         <v>0</v>
@@ -2514,11 +2529,11 @@
       <c r="AF10">
         <v>0</v>
       </c>
-      <c r="AG10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH10" s="1">
-        <v>1</v>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
       </c>
       <c r="AI10" s="1">
         <v>1</v>
@@ -2526,11 +2541,11 @@
       <c r="AJ10" s="1">
         <v>1</v>
       </c>
-      <c r="AK10" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL10" s="1">
-        <v>1</v>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
       </c>
       <c r="AM10">
         <v>0</v>
@@ -2583,7 +2598,7 @@
       <c r="BC10">
         <v>0</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" s="5">
         <v>0</v>
       </c>
       <c r="BE10" s="1">
@@ -2615,11 +2630,11 @@
       <c r="H11">
         <v>0</v>
       </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>1</v>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
@@ -2627,11 +2642,11 @@
       <c r="L11" s="1">
         <v>1</v>
       </c>
-      <c r="M11" s="1">
-        <v>1</v>
-      </c>
-      <c r="N11" s="1">
-        <v>1</v>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -2651,11 +2666,11 @@
       <c r="T11">
         <v>0</v>
       </c>
-      <c r="U11" s="1">
-        <v>1</v>
-      </c>
-      <c r="V11" s="1">
-        <v>1</v>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
       </c>
       <c r="W11" s="1">
         <v>1</v>
@@ -2663,11 +2678,11 @@
       <c r="X11" s="1">
         <v>1</v>
       </c>
-      <c r="Y11" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z11" s="1">
-        <v>1</v>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
       </c>
       <c r="AA11">
         <v>0</v>
@@ -2687,11 +2702,11 @@
       <c r="AF11">
         <v>0</v>
       </c>
-      <c r="AG11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH11" s="1">
-        <v>1</v>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
       </c>
       <c r="AI11" s="1">
         <v>1</v>
@@ -2699,11 +2714,11 @@
       <c r="AJ11" s="1">
         <v>1</v>
       </c>
-      <c r="AK11" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL11" s="1">
-        <v>1</v>
+      <c r="AK11">
+        <v>0</v>
+      </c>
+      <c r="AL11">
+        <v>0</v>
       </c>
       <c r="AM11">
         <v>0</v>
@@ -2756,7 +2771,7 @@
       <c r="BC11">
         <v>0</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" s="5">
         <v>0</v>
       </c>
       <c r="BE11" s="1">
@@ -2767,20 +2782,20 @@
       <c r="A12" s="1">
         <v>1</v>
       </c>
-      <c r="B12" s="3">
-        <v>22</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
+      <c r="B12" s="1">
+        <v>1</v>
+      </c>
+      <c r="C12" s="1">
+        <v>1</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2788,23 +2803,23 @@
       <c r="H12">
         <v>0</v>
       </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+      <c r="M12" s="1">
+        <v>1</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -2812,11 +2827,11 @@
       <c r="P12">
         <v>0</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>1</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2824,23 +2839,23 @@
       <c r="T12">
         <v>0</v>
       </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>0</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
+      <c r="U12" s="1">
+        <v>1</v>
+      </c>
+      <c r="V12" s="1">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1">
+        <v>1</v>
+      </c>
+      <c r="X12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>1</v>
       </c>
       <c r="AA12">
         <v>0</v>
@@ -2848,11 +2863,11 @@
       <c r="AB12">
         <v>0</v>
       </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
+      <c r="AC12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1</v>
       </c>
       <c r="AE12">
         <v>0</v>
@@ -2860,23 +2875,23 @@
       <c r="AF12">
         <v>0</v>
       </c>
-      <c r="AG12">
-        <v>0</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>0</v>
-      </c>
-      <c r="AJ12">
-        <v>0</v>
-      </c>
-      <c r="AK12">
-        <v>0</v>
-      </c>
-      <c r="AL12">
-        <v>0</v>
+      <c r="AG12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="1">
+        <v>1</v>
       </c>
       <c r="AM12">
         <v>0</v>
@@ -2884,41 +2899,41 @@
       <c r="AN12">
         <v>0</v>
       </c>
-      <c r="AO12">
-        <v>0</v>
-      </c>
-      <c r="AP12">
-        <v>0</v>
-      </c>
-      <c r="AQ12">
-        <v>0</v>
-      </c>
-      <c r="AR12">
-        <v>0</v>
-      </c>
-      <c r="AS12">
-        <v>0</v>
-      </c>
-      <c r="AT12">
-        <v>0</v>
-      </c>
-      <c r="AU12">
-        <v>0</v>
-      </c>
-      <c r="AV12">
-        <v>0</v>
-      </c>
-      <c r="AW12">
-        <v>0</v>
-      </c>
-      <c r="AX12">
-        <v>0</v>
-      </c>
-      <c r="AY12">
-        <v>0</v>
-      </c>
-      <c r="AZ12" s="3">
-        <v>22</v>
+      <c r="AO12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>1</v>
       </c>
       <c r="BA12" s="1">
         <v>1</v>
@@ -2929,7 +2944,7 @@
       <c r="BC12">
         <v>0</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" s="5">
         <v>0</v>
       </c>
       <c r="BE12" s="1">
@@ -2940,20 +2955,20 @@
       <c r="A13" s="1">
         <v>1</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
+      <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>1</v>
+      </c>
+      <c r="F13" s="1">
+        <v>1</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2961,23 +2976,23 @@
       <c r="H13">
         <v>0</v>
       </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>0</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>0</v>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
+      <c r="L13" s="1">
+        <v>1</v>
+      </c>
+      <c r="M13" s="1">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -2985,11 +3000,11 @@
       <c r="P13">
         <v>0</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>1</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -2997,23 +3012,23 @@
       <c r="T13">
         <v>0</v>
       </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>0</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
+      <c r="U13" s="1">
+        <v>1</v>
+      </c>
+      <c r="V13" s="1">
+        <v>1</v>
+      </c>
+      <c r="W13" s="1">
+        <v>1</v>
+      </c>
+      <c r="X13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>1</v>
       </c>
       <c r="AA13">
         <v>0</v>
@@ -3021,11 +3036,11 @@
       <c r="AB13">
         <v>0</v>
       </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
+      <c r="AC13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1</v>
       </c>
       <c r="AE13">
         <v>0</v>
@@ -3033,23 +3048,23 @@
       <c r="AF13">
         <v>0</v>
       </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-      <c r="AJ13">
-        <v>0</v>
-      </c>
-      <c r="AK13">
-        <v>0</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
+      <c r="AG13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL13" s="1">
+        <v>1</v>
       </c>
       <c r="AM13">
         <v>0</v>
@@ -3057,41 +3072,41 @@
       <c r="AN13">
         <v>0</v>
       </c>
-      <c r="AO13">
-        <v>0</v>
-      </c>
-      <c r="AP13">
-        <v>0</v>
-      </c>
-      <c r="AQ13">
-        <v>0</v>
-      </c>
-      <c r="AR13">
-        <v>0</v>
-      </c>
-      <c r="AS13">
-        <v>0</v>
-      </c>
-      <c r="AT13">
-        <v>0</v>
-      </c>
-      <c r="AU13">
-        <v>0</v>
-      </c>
-      <c r="AV13">
-        <v>0</v>
-      </c>
-      <c r="AW13">
-        <v>0</v>
-      </c>
-      <c r="AX13">
-        <v>0</v>
-      </c>
-      <c r="AY13">
-        <v>0</v>
-      </c>
-      <c r="AZ13">
-        <v>0</v>
+      <c r="AO13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ13" s="1">
+        <v>1</v>
       </c>
       <c r="BA13" s="1">
         <v>1</v>
@@ -3102,7 +3117,7 @@
       <c r="BC13">
         <v>0</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" s="5">
         <v>0</v>
       </c>
       <c r="BE13" s="1">
@@ -3113,8 +3128,8 @@
       <c r="A14" s="1">
         <v>1</v>
       </c>
-      <c r="B14">
-        <v>0</v>
+      <c r="B14" s="3">
+        <v>22</v>
       </c>
       <c r="C14">
         <v>0</v>
@@ -3125,40 +3140,40 @@
       <c r="E14">
         <v>0</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
+      <c r="F14" s="5">
+        <v>0</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>0</v>
+      </c>
+      <c r="J14" s="5">
+        <v>0</v>
+      </c>
+      <c r="K14" s="5">
+        <v>0</v>
+      </c>
+      <c r="L14" s="5">
+        <v>0</v>
+      </c>
+      <c r="M14" s="5">
+        <v>0</v>
+      </c>
+      <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>0</v>
+      </c>
+      <c r="P14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="5">
         <v>0</v>
       </c>
       <c r="R14">
@@ -3173,46 +3188,46 @@
       <c r="U14">
         <v>0</v>
       </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
+      <c r="V14" s="5">
+        <v>0</v>
+      </c>
+      <c r="W14" s="5">
+        <v>0</v>
+      </c>
+      <c r="X14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="5">
         <v>0</v>
       </c>
       <c r="AJ14">
@@ -3227,34 +3242,34 @@
       <c r="AM14">
         <v>0</v>
       </c>
-      <c r="AN14">
-        <v>0</v>
-      </c>
-      <c r="AO14">
-        <v>0</v>
-      </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
-        <v>0</v>
-      </c>
-      <c r="AR14">
-        <v>0</v>
-      </c>
-      <c r="AS14">
-        <v>0</v>
-      </c>
-      <c r="AT14">
-        <v>0</v>
-      </c>
-      <c r="AU14">
-        <v>0</v>
-      </c>
-      <c r="AV14">
-        <v>0</v>
-      </c>
-      <c r="AW14">
+      <c r="AN14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="5">
         <v>0</v>
       </c>
       <c r="AX14">
@@ -3263,8 +3278,8 @@
       <c r="AY14">
         <v>0</v>
       </c>
-      <c r="AZ14">
-        <v>0</v>
+      <c r="AZ14" s="3">
+        <v>22</v>
       </c>
       <c r="BA14" s="1">
         <v>1</v>
@@ -3275,7 +3290,7 @@
       <c r="BC14">
         <v>0</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" s="5">
         <v>0</v>
       </c>
       <c r="BE14" s="1">
@@ -3448,7 +3463,7 @@
       <c r="BC15">
         <v>0</v>
       </c>
-      <c r="BD15">
+      <c r="BD15" s="5">
         <v>0</v>
       </c>
       <c r="BE15" s="1">
@@ -3606,7 +3621,7 @@
       <c r="AX16">
         <v>0</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" s="5">
         <v>0</v>
       </c>
       <c r="AZ16">
@@ -3621,14 +3636,14 @@
       <c r="BC16">
         <v>0</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" s="5">
         <v>0</v>
       </c>
       <c r="BE16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -3779,7 +3794,7 @@
       <c r="AX17">
         <v>0</v>
       </c>
-      <c r="AY17">
+      <c r="AY17" s="5">
         <v>0</v>
       </c>
       <c r="AZ17">
@@ -3794,34 +3809,34 @@
       <c r="BC17">
         <v>0</v>
       </c>
-      <c r="BD17">
+      <c r="BD17" s="5">
         <v>0</v>
       </c>
       <c r="BE17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
       <c r="B18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H18" s="1">
         <v>1</v>
@@ -3952,7 +3967,7 @@
       <c r="AX18">
         <v>0</v>
       </c>
-      <c r="AY18">
+      <c r="AY18" s="5">
         <v>0</v>
       </c>
       <c r="AZ18">
@@ -3967,34 +3982,34 @@
       <c r="BC18">
         <v>0</v>
       </c>
-      <c r="BD18">
+      <c r="BD18" s="5">
         <v>0</v>
       </c>
       <c r="BE18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
       <c r="B19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H19" s="1">
         <v>1</v>
@@ -4125,7 +4140,7 @@
       <c r="AX19">
         <v>0</v>
       </c>
-      <c r="AY19">
+      <c r="AY19" s="5">
         <v>0</v>
       </c>
       <c r="AZ19">
@@ -4140,46 +4155,46 @@
       <c r="BC19">
         <v>0</v>
       </c>
-      <c r="BD19">
+      <c r="BD19" s="5">
         <v>0</v>
       </c>
       <c r="BE19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
       <c r="B20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L20" s="1">
         <v>1</v>
@@ -4298,7 +4313,7 @@
       <c r="AX20">
         <v>0</v>
       </c>
-      <c r="AY20">
+      <c r="AY20" s="5">
         <v>0</v>
       </c>
       <c r="AZ20">
@@ -4313,46 +4328,46 @@
       <c r="BC20">
         <v>0</v>
       </c>
-      <c r="BD20">
+      <c r="BD20" s="5">
         <v>0</v>
       </c>
       <c r="BE20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
       <c r="B21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>25</v>
-      </c>
-      <c r="J21">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="J21" s="5">
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L21" s="1">
         <v>1</v>
@@ -4471,7 +4486,7 @@
       <c r="AX21">
         <v>0</v>
       </c>
-      <c r="AY21">
+      <c r="AY21" s="5">
         <v>0</v>
       </c>
       <c r="AZ21">
@@ -4486,22 +4501,22 @@
       <c r="BC21">
         <v>0</v>
       </c>
-      <c r="BD21">
+      <c r="BD21" s="5">
         <v>0</v>
       </c>
       <c r="BE21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
       <c r="B22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D22" s="1">
         <v>1</v>
@@ -4521,7 +4536,7 @@
       <c r="I22">
         <v>0</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="5">
         <v>0</v>
       </c>
       <c r="K22">
@@ -4644,7 +4659,7 @@
       <c r="AX22">
         <v>0</v>
       </c>
-      <c r="AY22">
+      <c r="AY22" s="5">
         <v>0</v>
       </c>
       <c r="AZ22">
@@ -4665,16 +4680,20 @@
       <c r="BE22" s="1">
         <v>1</v>
       </c>
+      <c r="BI22">
+        <f>51-4</f>
+        <v>47</v>
+      </c>
     </row>
-    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
       <c r="B23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D23" s="1">
         <v>1</v>
@@ -4694,7 +4713,7 @@
       <c r="I23">
         <v>0</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="5">
         <v>0</v>
       </c>
       <c r="K23">
@@ -4730,8 +4749,8 @@
       <c r="U23">
         <v>0</v>
       </c>
-      <c r="V23">
-        <v>0</v>
+      <c r="V23" s="3">
+        <v>22</v>
       </c>
       <c r="W23" s="1">
         <v>1</v>
@@ -4739,8 +4758,8 @@
       <c r="X23" s="1">
         <v>1</v>
       </c>
-      <c r="Y23">
-        <v>0</v>
+      <c r="Y23" s="3">
+        <v>22</v>
       </c>
       <c r="Z23">
         <v>0</v>
@@ -4766,8 +4785,8 @@
       <c r="AG23">
         <v>0</v>
       </c>
-      <c r="AH23">
-        <v>0</v>
+      <c r="AH23" s="3">
+        <v>22</v>
       </c>
       <c r="AI23" s="1">
         <v>1</v>
@@ -4775,8 +4794,8 @@
       <c r="AJ23" s="1">
         <v>1</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
+      <c r="AK23" s="3">
+        <v>22</v>
       </c>
       <c r="AL23">
         <v>0</v>
@@ -4802,8 +4821,8 @@
       <c r="AS23">
         <v>0</v>
       </c>
-      <c r="AT23">
-        <v>0</v>
+      <c r="AT23" s="3">
+        <v>22</v>
       </c>
       <c r="AU23" s="1">
         <v>1</v>
@@ -4817,7 +4836,7 @@
       <c r="AX23">
         <v>0</v>
       </c>
-      <c r="AY23">
+      <c r="AY23" s="5">
         <v>0</v>
       </c>
       <c r="AZ23">
@@ -4839,15 +4858,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
       <c r="B24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -4867,19 +4886,19 @@
       <c r="I24">
         <v>0</v>
       </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
+      <c r="J24" s="5">
+        <v>0</v>
+      </c>
+      <c r="K24" s="5">
+        <v>0</v>
+      </c>
+      <c r="L24" s="5">
+        <v>0</v>
+      </c>
+      <c r="M24" s="5">
+        <v>0</v>
+      </c>
+      <c r="N24" s="5">
         <v>0</v>
       </c>
       <c r="O24">
@@ -4990,7 +5009,7 @@
       <c r="AX24">
         <v>0</v>
       </c>
-      <c r="AY24">
+      <c r="AY24" s="5">
         <v>0</v>
       </c>
       <c r="AZ24">
@@ -5012,20 +5031,20 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
       <c r="B25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="5">
         <v>0</v>
       </c>
       <c r="F25">
@@ -5058,8 +5077,8 @@
       <c r="O25">
         <v>0</v>
       </c>
-      <c r="P25">
-        <v>0</v>
+      <c r="P25" s="3">
+        <v>22</v>
       </c>
       <c r="Q25" s="1">
         <v>1</v>
@@ -5157,8 +5176,8 @@
       <c r="AV25" s="1">
         <v>1</v>
       </c>
-      <c r="AW25">
-        <v>0</v>
+      <c r="AW25" s="3">
+        <v>22</v>
       </c>
       <c r="AX25">
         <v>0</v>
@@ -5185,366 +5204,366 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
       <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1</v>
+      </c>
+      <c r="I26" s="1">
+        <v>1</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="1">
+        <v>1</v>
+      </c>
+      <c r="L26" s="1">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26" s="3">
+        <v>22</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26" s="3">
+        <v>22</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26">
+        <v>0</v>
+      </c>
+      <c r="AL26">
+        <v>0</v>
+      </c>
+      <c r="AM26">
+        <v>0</v>
+      </c>
+      <c r="AN26">
+        <v>0</v>
+      </c>
+      <c r="AO26" s="3">
+        <v>22</v>
+      </c>
+      <c r="AP26">
+        <v>0</v>
+      </c>
+      <c r="AQ26">
+        <v>0</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0</v>
+      </c>
+      <c r="AT26">
+        <v>0</v>
+      </c>
+      <c r="AU26">
+        <v>0</v>
+      </c>
+      <c r="AV26">
+        <v>0</v>
+      </c>
+      <c r="AW26">
+        <v>0</v>
+      </c>
+      <c r="AX26">
+        <v>0</v>
+      </c>
+      <c r="AY26">
+        <v>0</v>
+      </c>
+      <c r="AZ26">
+        <v>0</v>
+      </c>
+      <c r="BA26">
+        <v>0</v>
+      </c>
+      <c r="BB26">
+        <v>0</v>
+      </c>
+      <c r="BC26">
+        <v>0</v>
+      </c>
+      <c r="BD26">
+        <v>0</v>
+      </c>
+      <c r="BE26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" s="5">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>1</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
+      <c r="K27" s="1">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1">
+        <v>1</v>
+      </c>
+      <c r="M27" s="4">
         <v>25</v>
       </c>
-      <c r="C26">
-        <v>25</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1</v>
-      </c>
-      <c r="I26" s="1">
-        <v>1</v>
-      </c>
-      <c r="J26" s="1">
-        <v>1</v>
-      </c>
-      <c r="K26" s="1">
-        <v>1</v>
-      </c>
-      <c r="L26" s="1">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>0</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>0</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-      <c r="AJ26">
-        <v>0</v>
-      </c>
-      <c r="AK26">
-        <v>0</v>
-      </c>
-      <c r="AL26">
-        <v>0</v>
-      </c>
-      <c r="AM26">
-        <v>0</v>
-      </c>
-      <c r="AN26">
-        <v>0</v>
-      </c>
-      <c r="AO26">
-        <v>0</v>
-      </c>
-      <c r="AP26">
-        <v>0</v>
-      </c>
-      <c r="AQ26">
-        <v>0</v>
-      </c>
-      <c r="AR26">
-        <v>0</v>
-      </c>
-      <c r="AS26">
-        <v>0</v>
-      </c>
-      <c r="AT26">
-        <v>0</v>
-      </c>
-      <c r="AU26">
-        <v>0</v>
-      </c>
-      <c r="AV26">
-        <v>0</v>
-      </c>
-      <c r="AW26">
-        <v>0</v>
-      </c>
-      <c r="AX26">
-        <v>0</v>
-      </c>
-      <c r="AY26">
-        <v>0</v>
-      </c>
-      <c r="AZ26">
-        <v>0</v>
-      </c>
-      <c r="BA26">
-        <v>0</v>
-      </c>
-      <c r="BB26">
-        <v>0</v>
-      </c>
-      <c r="BC26">
-        <v>0</v>
-      </c>
-      <c r="BD26">
-        <v>0</v>
-      </c>
-      <c r="BE26" s="1">
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27" s="5">
+        <v>0</v>
+      </c>
+      <c r="X27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ27">
+        <v>0</v>
+      </c>
+      <c r="AK27">
+        <v>0</v>
+      </c>
+      <c r="AL27">
+        <v>0</v>
+      </c>
+      <c r="AM27">
+        <v>0</v>
+      </c>
+      <c r="AN27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AX27">
+        <v>0</v>
+      </c>
+      <c r="AY27">
+        <v>0</v>
+      </c>
+      <c r="AZ27">
+        <v>0</v>
+      </c>
+      <c r="BA27">
+        <v>0</v>
+      </c>
+      <c r="BB27">
+        <v>0</v>
+      </c>
+      <c r="BC27">
+        <v>0</v>
+      </c>
+      <c r="BD27">
+        <v>0</v>
+      </c>
+      <c r="BE27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
-        <v>1</v>
-      </c>
-      <c r="B27">
-        <v>25</v>
-      </c>
-      <c r="C27">
-        <v>25</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1</v>
-      </c>
-      <c r="I27" s="1">
-        <v>1</v>
-      </c>
-      <c r="J27" s="1">
-        <v>1</v>
-      </c>
-      <c r="K27" s="1">
-        <v>1</v>
-      </c>
-      <c r="L27" s="1">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>0</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>0</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>0</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
-        <v>0</v>
-      </c>
-      <c r="AN27">
-        <v>0</v>
-      </c>
-      <c r="AO27">
-        <v>0</v>
-      </c>
-      <c r="AP27">
-        <v>0</v>
-      </c>
-      <c r="AQ27">
-        <v>0</v>
-      </c>
-      <c r="AR27">
-        <v>0</v>
-      </c>
-      <c r="AS27">
-        <v>0</v>
-      </c>
-      <c r="AT27">
-        <v>0</v>
-      </c>
-      <c r="AU27">
-        <v>0</v>
-      </c>
-      <c r="AV27">
-        <v>0</v>
-      </c>
-      <c r="AW27">
-        <v>0</v>
-      </c>
-      <c r="AX27">
-        <v>0</v>
-      </c>
-      <c r="AY27">
-        <v>0</v>
-      </c>
-      <c r="AZ27">
-        <v>0</v>
-      </c>
-      <c r="BA27">
-        <v>0</v>
-      </c>
-      <c r="BB27">
-        <v>0</v>
-      </c>
-      <c r="BC27">
-        <v>0</v>
-      </c>
-      <c r="BD27">
-        <v>0</v>
-      </c>
-      <c r="BE27" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
       <c r="B28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C28">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="5">
         <v>0</v>
       </c>
       <c r="F28">
@@ -5577,8 +5596,8 @@
       <c r="O28">
         <v>0</v>
       </c>
-      <c r="P28">
-        <v>0</v>
+      <c r="P28" s="3">
+        <v>22</v>
       </c>
       <c r="Q28" s="1">
         <v>1</v>
@@ -5676,8 +5695,8 @@
       <c r="AV28" s="1">
         <v>1</v>
       </c>
-      <c r="AW28">
-        <v>0</v>
+      <c r="AW28" s="3">
+        <v>22</v>
       </c>
       <c r="AX28">
         <v>0</v>
@@ -5704,15 +5723,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
       <c r="B29">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C29">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -5732,19 +5751,19 @@
       <c r="I29">
         <v>0</v>
       </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
+      <c r="J29" s="5">
+        <v>0</v>
+      </c>
+      <c r="K29" s="5">
+        <v>0</v>
+      </c>
+      <c r="L29" s="5">
+        <v>0</v>
+      </c>
+      <c r="M29" s="5">
+        <v>0</v>
+      </c>
+      <c r="N29" s="5">
         <v>0</v>
       </c>
       <c r="O29">
@@ -5877,15 +5896,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
       <c r="B30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D30" s="1">
         <v>1</v>
@@ -5905,7 +5924,7 @@
       <c r="I30">
         <v>0</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="5">
         <v>0</v>
       </c>
       <c r="K30">
@@ -5941,8 +5960,8 @@
       <c r="U30">
         <v>0</v>
       </c>
-      <c r="V30">
-        <v>0</v>
+      <c r="V30" s="3">
+        <v>22</v>
       </c>
       <c r="W30" s="1">
         <v>1</v>
@@ -5950,8 +5969,8 @@
       <c r="X30" s="1">
         <v>1</v>
       </c>
-      <c r="Y30">
-        <v>0</v>
+      <c r="Y30" s="3">
+        <v>22</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -5977,8 +5996,8 @@
       <c r="AG30">
         <v>0</v>
       </c>
-      <c r="AH30">
-        <v>0</v>
+      <c r="AH30" s="3">
+        <v>22</v>
       </c>
       <c r="AI30" s="1">
         <v>1</v>
@@ -5986,8 +6005,8 @@
       <c r="AJ30" s="1">
         <v>1</v>
       </c>
-      <c r="AK30">
-        <v>0</v>
+      <c r="AK30" s="3">
+        <v>22</v>
       </c>
       <c r="AL30">
         <v>0</v>
@@ -6013,8 +6032,8 @@
       <c r="AS30">
         <v>0</v>
       </c>
-      <c r="AT30">
-        <v>0</v>
+      <c r="AT30" s="3">
+        <v>22</v>
       </c>
       <c r="AU30" s="1">
         <v>1</v>
@@ -6028,7 +6047,7 @@
       <c r="AX30">
         <v>0</v>
       </c>
-      <c r="AY30">
+      <c r="AY30" s="5">
         <v>0</v>
       </c>
       <c r="AZ30">
@@ -6050,15 +6069,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
       <c r="B31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C31">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D31" s="1">
         <v>1</v>
@@ -6078,7 +6097,7 @@
       <c r="I31">
         <v>0</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="5">
         <v>0</v>
       </c>
       <c r="K31">
@@ -6201,7 +6220,7 @@
       <c r="AX31">
         <v>0</v>
       </c>
-      <c r="AY31">
+      <c r="AY31" s="5">
         <v>0</v>
       </c>
       <c r="AZ31">
@@ -6223,39 +6242,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
       <c r="B32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>25</v>
-      </c>
-      <c r="J32">
-        <v>25</v>
+        <v>0</v>
+      </c>
+      <c r="J32" s="5">
+        <v>0</v>
       </c>
       <c r="K32">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L32" s="1">
         <v>1</v>
@@ -6374,7 +6393,7 @@
       <c r="AX32">
         <v>0</v>
       </c>
-      <c r="AY32">
+      <c r="AY32" s="5">
         <v>0</v>
       </c>
       <c r="AZ32">
@@ -6401,34 +6420,34 @@
         <v>1</v>
       </c>
       <c r="B33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="J33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="K33">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="L33" s="1">
         <v>1</v>
@@ -6547,7 +6566,7 @@
       <c r="AX33">
         <v>0</v>
       </c>
-      <c r="AY33">
+      <c r="AY33" s="5">
         <v>0</v>
       </c>
       <c r="AZ33">
@@ -6574,22 +6593,22 @@
         <v>1</v>
       </c>
       <c r="B34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H34" s="1">
         <v>1</v>
@@ -6720,7 +6739,7 @@
       <c r="AX34">
         <v>0</v>
       </c>
-      <c r="AY34">
+      <c r="AY34" s="5">
         <v>0</v>
       </c>
       <c r="AZ34">
@@ -6747,22 +6766,22 @@
         <v>1</v>
       </c>
       <c r="B35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="D35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="E35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="G35">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="H35" s="1">
         <v>1</v>
@@ -6893,7 +6912,7 @@
       <c r="AX35">
         <v>0</v>
       </c>
-      <c r="AY35">
+      <c r="AY35" s="5">
         <v>0</v>
       </c>
       <c r="AZ35">
@@ -6905,7 +6924,7 @@
       <c r="BB35" s="1">
         <v>1</v>
       </c>
-      <c r="BC35">
+      <c r="BC35" s="5">
         <v>0</v>
       </c>
       <c r="BD35">
@@ -7066,7 +7085,7 @@
       <c r="AX36">
         <v>0</v>
       </c>
-      <c r="AY36">
+      <c r="AY36" s="5">
         <v>0</v>
       </c>
       <c r="AZ36">
@@ -7078,7 +7097,7 @@
       <c r="BB36" s="1">
         <v>1</v>
       </c>
-      <c r="BC36">
+      <c r="BC36" s="5">
         <v>0</v>
       </c>
       <c r="BD36">
@@ -7251,7 +7270,7 @@
       <c r="BB37" s="1">
         <v>1</v>
       </c>
-      <c r="BC37">
+      <c r="BC37" s="5">
         <v>0</v>
       </c>
       <c r="BD37">
@@ -7424,7 +7443,7 @@
       <c r="BB38" s="1">
         <v>1</v>
       </c>
-      <c r="BC38">
+      <c r="BC38" s="5">
         <v>0</v>
       </c>
       <c r="BD38">
@@ -7438,8 +7457,8 @@
       <c r="A39" s="1">
         <v>1</v>
       </c>
-      <c r="B39">
-        <v>0</v>
+      <c r="B39" s="3">
+        <v>22</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -7450,43 +7469,43 @@
       <c r="E39">
         <v>0</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <v>0</v>
-      </c>
-      <c r="H39">
-        <v>0</v>
-      </c>
-      <c r="I39">
-        <v>0</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
-      </c>
-      <c r="K39">
-        <v>0</v>
-      </c>
-      <c r="L39">
-        <v>0</v>
-      </c>
-      <c r="M39">
-        <v>0</v>
-      </c>
-      <c r="N39">
-        <v>0</v>
-      </c>
-      <c r="O39">
-        <v>0</v>
-      </c>
-      <c r="P39">
-        <v>0</v>
-      </c>
-      <c r="Q39">
-        <v>0</v>
-      </c>
-      <c r="R39">
+      <c r="F39" s="5">
+        <v>0</v>
+      </c>
+      <c r="G39" s="5">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <v>0</v>
+      </c>
+      <c r="I39" s="5">
+        <v>0</v>
+      </c>
+      <c r="J39" s="5">
+        <v>0</v>
+      </c>
+      <c r="K39" s="5">
+        <v>0</v>
+      </c>
+      <c r="L39" s="5">
+        <v>0</v>
+      </c>
+      <c r="M39" s="5">
+        <v>0</v>
+      </c>
+      <c r="N39" s="5">
+        <v>0</v>
+      </c>
+      <c r="O39" s="5">
+        <v>0</v>
+      </c>
+      <c r="P39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="5">
+        <v>0</v>
+      </c>
+      <c r="R39" s="5">
         <v>0</v>
       </c>
       <c r="S39">
@@ -7501,43 +7520,43 @@
       <c r="V39">
         <v>0</v>
       </c>
-      <c r="W39">
-        <v>0</v>
-      </c>
-      <c r="X39">
-        <v>0</v>
-      </c>
-      <c r="Y39">
-        <v>0</v>
-      </c>
-      <c r="Z39">
-        <v>0</v>
-      </c>
-      <c r="AA39">
-        <v>0</v>
-      </c>
-      <c r="AB39">
-        <v>0</v>
-      </c>
-      <c r="AC39">
-        <v>0</v>
-      </c>
-      <c r="AD39">
-        <v>0</v>
-      </c>
-      <c r="AE39">
-        <v>0</v>
-      </c>
-      <c r="AF39">
-        <v>0</v>
-      </c>
-      <c r="AG39">
-        <v>0</v>
-      </c>
-      <c r="AH39">
-        <v>0</v>
-      </c>
-      <c r="AI39">
+      <c r="W39" s="5">
+        <v>0</v>
+      </c>
+      <c r="X39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="5">
         <v>0</v>
       </c>
       <c r="AJ39">
@@ -7552,34 +7571,34 @@
       <c r="AM39">
         <v>0</v>
       </c>
-      <c r="AN39">
-        <v>0</v>
-      </c>
-      <c r="AO39">
-        <v>0</v>
-      </c>
-      <c r="AP39">
-        <v>0</v>
-      </c>
-      <c r="AQ39">
-        <v>0</v>
-      </c>
-      <c r="AR39">
-        <v>0</v>
-      </c>
-      <c r="AS39">
-        <v>0</v>
-      </c>
-      <c r="AT39">
-        <v>0</v>
-      </c>
-      <c r="AU39">
-        <v>0</v>
-      </c>
-      <c r="AV39">
-        <v>0</v>
-      </c>
-      <c r="AW39">
+      <c r="AN39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="5">
         <v>0</v>
       </c>
       <c r="AX39">
@@ -7588,8 +7607,8 @@
       <c r="AY39">
         <v>0</v>
       </c>
-      <c r="AZ39">
-        <v>0</v>
+      <c r="AZ39" s="3">
+        <v>22</v>
       </c>
       <c r="BA39" s="1">
         <v>1</v>
@@ -7597,7 +7616,7 @@
       <c r="BB39" s="1">
         <v>1</v>
       </c>
-      <c r="BC39">
+      <c r="BC39" s="5">
         <v>0</v>
       </c>
       <c r="BD39">
@@ -7611,20 +7630,20 @@
       <c r="A40" s="1">
         <v>1</v>
       </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>0</v>
-      </c>
-      <c r="D40">
-        <v>0</v>
-      </c>
-      <c r="E40">
-        <v>0</v>
-      </c>
-      <c r="F40">
-        <v>0</v>
+      <c r="B40" s="1">
+        <v>1</v>
+      </c>
+      <c r="C40" s="1">
+        <v>1</v>
+      </c>
+      <c r="D40" s="1">
+        <v>1</v>
+      </c>
+      <c r="E40" s="1">
+        <v>1</v>
+      </c>
+      <c r="F40" s="1">
+        <v>1</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -7632,23 +7651,23 @@
       <c r="H40">
         <v>0</v>
       </c>
-      <c r="I40">
-        <v>0</v>
-      </c>
-      <c r="J40">
-        <v>0</v>
-      </c>
-      <c r="K40">
-        <v>0</v>
-      </c>
-      <c r="L40">
-        <v>0</v>
-      </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
-      <c r="N40">
-        <v>0</v>
+      <c r="I40" s="1">
+        <v>1</v>
+      </c>
+      <c r="J40" s="1">
+        <v>1</v>
+      </c>
+      <c r="K40" s="1">
+        <v>1</v>
+      </c>
+      <c r="L40" s="1">
+        <v>1</v>
+      </c>
+      <c r="M40" s="1">
+        <v>1</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1</v>
       </c>
       <c r="O40">
         <v>0</v>
@@ -7656,11 +7675,11 @@
       <c r="P40">
         <v>0</v>
       </c>
-      <c r="Q40">
-        <v>0</v>
-      </c>
-      <c r="R40">
-        <v>0</v>
+      <c r="Q40" s="1">
+        <v>1</v>
+      </c>
+      <c r="R40" s="1">
+        <v>1</v>
       </c>
       <c r="S40">
         <v>0</v>
@@ -7668,23 +7687,23 @@
       <c r="T40">
         <v>0</v>
       </c>
-      <c r="U40">
-        <v>0</v>
-      </c>
-      <c r="V40">
-        <v>0</v>
-      </c>
-      <c r="W40">
-        <v>0</v>
-      </c>
-      <c r="X40">
-        <v>0</v>
-      </c>
-      <c r="Y40">
-        <v>0</v>
-      </c>
-      <c r="Z40">
-        <v>0</v>
+      <c r="U40" s="1">
+        <v>1</v>
+      </c>
+      <c r="V40" s="1">
+        <v>1</v>
+      </c>
+      <c r="W40" s="1">
+        <v>1</v>
+      </c>
+      <c r="X40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="1">
+        <v>1</v>
       </c>
       <c r="AA40">
         <v>0</v>
@@ -7692,11 +7711,11 @@
       <c r="AB40">
         <v>0</v>
       </c>
-      <c r="AC40">
-        <v>0</v>
-      </c>
-      <c r="AD40">
-        <v>0</v>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1</v>
       </c>
       <c r="AE40">
         <v>0</v>
@@ -7704,23 +7723,23 @@
       <c r="AF40">
         <v>0</v>
       </c>
-      <c r="AG40">
-        <v>0</v>
-      </c>
-      <c r="AH40">
-        <v>0</v>
-      </c>
-      <c r="AI40">
-        <v>0</v>
-      </c>
-      <c r="AJ40">
-        <v>0</v>
-      </c>
-      <c r="AK40">
-        <v>0</v>
-      </c>
-      <c r="AL40">
-        <v>0</v>
+      <c r="AG40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL40" s="1">
+        <v>1</v>
       </c>
       <c r="AM40">
         <v>0</v>
@@ -7728,41 +7747,41 @@
       <c r="AN40">
         <v>0</v>
       </c>
-      <c r="AO40">
-        <v>0</v>
-      </c>
-      <c r="AP40">
-        <v>0</v>
-      </c>
-      <c r="AQ40">
-        <v>0</v>
-      </c>
-      <c r="AR40">
-        <v>0</v>
-      </c>
-      <c r="AS40">
-        <v>0</v>
-      </c>
-      <c r="AT40">
-        <v>0</v>
-      </c>
-      <c r="AU40">
-        <v>0</v>
-      </c>
-      <c r="AV40">
-        <v>0</v>
-      </c>
-      <c r="AW40">
-        <v>0</v>
-      </c>
-      <c r="AX40">
-        <v>0</v>
-      </c>
-      <c r="AY40">
-        <v>0</v>
-      </c>
-      <c r="AZ40">
-        <v>0</v>
+      <c r="AO40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ40" s="1">
+        <v>1</v>
       </c>
       <c r="BA40" s="1">
         <v>1</v>
@@ -7770,7 +7789,7 @@
       <c r="BB40" s="1">
         <v>1</v>
       </c>
-      <c r="BC40">
+      <c r="BC40" s="5">
         <v>0</v>
       </c>
       <c r="BD40">
@@ -7784,20 +7803,20 @@
       <c r="A41" s="1">
         <v>1</v>
       </c>
-      <c r="B41" s="3">
-        <v>22</v>
-      </c>
-      <c r="C41">
-        <v>0</v>
-      </c>
-      <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
-        <v>0</v>
-      </c>
-      <c r="F41">
-        <v>0</v>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41" s="1">
+        <v>1</v>
+      </c>
+      <c r="D41" s="1">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -7805,23 +7824,23 @@
       <c r="H41">
         <v>0</v>
       </c>
-      <c r="I41">
-        <v>0</v>
-      </c>
-      <c r="J41">
-        <v>0</v>
-      </c>
-      <c r="K41">
-        <v>0</v>
-      </c>
-      <c r="L41">
-        <v>0</v>
-      </c>
-      <c r="M41">
-        <v>0</v>
-      </c>
-      <c r="N41">
-        <v>0</v>
+      <c r="I41" s="1">
+        <v>1</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1</v>
+      </c>
+      <c r="K41" s="1">
+        <v>1</v>
+      </c>
+      <c r="L41" s="1">
+        <v>1</v>
+      </c>
+      <c r="M41" s="1">
+        <v>1</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1</v>
       </c>
       <c r="O41">
         <v>0</v>
@@ -7829,11 +7848,11 @@
       <c r="P41">
         <v>0</v>
       </c>
-      <c r="Q41">
-        <v>0</v>
-      </c>
-      <c r="R41">
-        <v>0</v>
+      <c r="Q41" s="1">
+        <v>1</v>
+      </c>
+      <c r="R41" s="1">
+        <v>1</v>
       </c>
       <c r="S41">
         <v>0</v>
@@ -7841,23 +7860,23 @@
       <c r="T41">
         <v>0</v>
       </c>
-      <c r="U41">
-        <v>0</v>
-      </c>
-      <c r="V41">
-        <v>0</v>
-      </c>
-      <c r="W41">
-        <v>0</v>
-      </c>
-      <c r="X41">
-        <v>0</v>
-      </c>
-      <c r="Y41">
-        <v>0</v>
-      </c>
-      <c r="Z41">
-        <v>0</v>
+      <c r="U41" s="1">
+        <v>1</v>
+      </c>
+      <c r="V41" s="1">
+        <v>1</v>
+      </c>
+      <c r="W41" s="1">
+        <v>1</v>
+      </c>
+      <c r="X41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z41" s="1">
+        <v>1</v>
       </c>
       <c r="AA41">
         <v>0</v>
@@ -7865,11 +7884,11 @@
       <c r="AB41">
         <v>0</v>
       </c>
-      <c r="AC41">
-        <v>0</v>
-      </c>
-      <c r="AD41">
-        <v>0</v>
+      <c r="AC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1</v>
       </c>
       <c r="AE41">
         <v>0</v>
@@ -7877,23 +7896,23 @@
       <c r="AF41">
         <v>0</v>
       </c>
-      <c r="AG41">
-        <v>0</v>
-      </c>
-      <c r="AH41">
-        <v>0</v>
-      </c>
-      <c r="AI41">
-        <v>0</v>
-      </c>
-      <c r="AJ41">
-        <v>0</v>
-      </c>
-      <c r="AK41">
-        <v>0</v>
-      </c>
-      <c r="AL41">
-        <v>0</v>
+      <c r="AG41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL41" s="1">
+        <v>1</v>
       </c>
       <c r="AM41">
         <v>0</v>
@@ -7901,41 +7920,41 @@
       <c r="AN41">
         <v>0</v>
       </c>
-      <c r="AO41">
-        <v>0</v>
-      </c>
-      <c r="AP41">
-        <v>0</v>
-      </c>
-      <c r="AQ41">
-        <v>0</v>
-      </c>
-      <c r="AR41">
-        <v>0</v>
-      </c>
-      <c r="AS41">
-        <v>0</v>
-      </c>
-      <c r="AT41">
-        <v>0</v>
-      </c>
-      <c r="AU41">
-        <v>0</v>
-      </c>
-      <c r="AV41">
-        <v>0</v>
-      </c>
-      <c r="AW41">
-        <v>0</v>
-      </c>
-      <c r="AX41">
-        <v>0</v>
-      </c>
-      <c r="AY41">
-        <v>0</v>
-      </c>
-      <c r="AZ41" s="3">
-        <v>22</v>
+      <c r="AO41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AU41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AV41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AW41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AY41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AZ41" s="1">
+        <v>1</v>
       </c>
       <c r="BA41" s="1">
         <v>1</v>
@@ -7943,7 +7962,7 @@
       <c r="BB41" s="1">
         <v>1</v>
       </c>
-      <c r="BC41">
+      <c r="BC41" s="5">
         <v>0</v>
       </c>
       <c r="BD41">
@@ -7978,11 +7997,11 @@
       <c r="H42">
         <v>0</v>
       </c>
-      <c r="I42" s="1">
-        <v>1</v>
-      </c>
-      <c r="J42" s="1">
-        <v>1</v>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
       </c>
       <c r="K42" s="1">
         <v>1</v>
@@ -7990,11 +8009,11 @@
       <c r="L42" s="1">
         <v>1</v>
       </c>
-      <c r="M42" s="1">
-        <v>1</v>
-      </c>
-      <c r="N42" s="1">
-        <v>1</v>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>0</v>
       </c>
       <c r="O42">
         <v>0</v>
@@ -8014,11 +8033,11 @@
       <c r="T42">
         <v>0</v>
       </c>
-      <c r="U42" s="1">
-        <v>1</v>
-      </c>
-      <c r="V42" s="1">
-        <v>1</v>
+      <c r="U42">
+        <v>0</v>
+      </c>
+      <c r="V42">
+        <v>0</v>
       </c>
       <c r="W42" s="1">
         <v>1</v>
@@ -8026,11 +8045,11 @@
       <c r="X42" s="1">
         <v>1</v>
       </c>
-      <c r="Y42" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z42" s="1">
-        <v>1</v>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+      <c r="Z42">
+        <v>0</v>
       </c>
       <c r="AA42">
         <v>0</v>
@@ -8050,11 +8069,11 @@
       <c r="AF42">
         <v>0</v>
       </c>
-      <c r="AG42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH42" s="1">
-        <v>1</v>
+      <c r="AG42">
+        <v>0</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
       </c>
       <c r="AI42" s="1">
         <v>1</v>
@@ -8062,11 +8081,11 @@
       <c r="AJ42" s="1">
         <v>1</v>
       </c>
-      <c r="AK42" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL42" s="1">
-        <v>1</v>
+      <c r="AK42">
+        <v>0</v>
+      </c>
+      <c r="AL42">
+        <v>0</v>
       </c>
       <c r="AM42">
         <v>0</v>
@@ -8116,7 +8135,7 @@
       <c r="BB42" s="1">
         <v>1</v>
       </c>
-      <c r="BC42">
+      <c r="BC42" s="5">
         <v>0</v>
       </c>
       <c r="BD42">
@@ -8151,11 +8170,11 @@
       <c r="H43">
         <v>0</v>
       </c>
-      <c r="I43" s="1">
-        <v>1</v>
-      </c>
-      <c r="J43" s="1">
-        <v>1</v>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
       </c>
       <c r="K43" s="1">
         <v>1</v>
@@ -8163,11 +8182,11 @@
       <c r="L43" s="1">
         <v>1</v>
       </c>
-      <c r="M43" s="1">
-        <v>1</v>
-      </c>
-      <c r="N43" s="1">
-        <v>1</v>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
       </c>
       <c r="O43">
         <v>0</v>
@@ -8187,11 +8206,11 @@
       <c r="T43">
         <v>0</v>
       </c>
-      <c r="U43" s="1">
-        <v>1</v>
-      </c>
-      <c r="V43" s="1">
-        <v>1</v>
+      <c r="U43">
+        <v>0</v>
+      </c>
+      <c r="V43">
+        <v>0</v>
       </c>
       <c r="W43" s="1">
         <v>1</v>
@@ -8199,11 +8218,11 @@
       <c r="X43" s="1">
         <v>1</v>
       </c>
-      <c r="Y43" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="1">
-        <v>1</v>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+      <c r="Z43">
+        <v>0</v>
       </c>
       <c r="AA43">
         <v>0</v>
@@ -8223,11 +8242,11 @@
       <c r="AF43">
         <v>0</v>
       </c>
-      <c r="AG43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AH43" s="1">
-        <v>1</v>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
       </c>
       <c r="AI43" s="1">
         <v>1</v>
@@ -8235,11 +8254,11 @@
       <c r="AJ43" s="1">
         <v>1</v>
       </c>
-      <c r="AK43" s="1">
-        <v>1</v>
-      </c>
-      <c r="AL43" s="1">
-        <v>1</v>
+      <c r="AK43">
+        <v>0</v>
+      </c>
+      <c r="AL43">
+        <v>0</v>
       </c>
       <c r="AM43">
         <v>0</v>
@@ -8289,7 +8308,7 @@
       <c r="BB43" s="1">
         <v>1</v>
       </c>
-      <c r="BC43">
+      <c r="BC43" s="5">
         <v>0</v>
       </c>
       <c r="BD43">
@@ -8462,7 +8481,7 @@
       <c r="BB44" s="1">
         <v>1</v>
       </c>
-      <c r="BC44">
+      <c r="BC44" s="5">
         <v>0</v>
       </c>
       <c r="BD44">
@@ -8635,7 +8654,7 @@
       <c r="BB45" s="1">
         <v>1</v>
       </c>
-      <c r="BC45">
+      <c r="BC45" s="5">
         <v>0</v>
       </c>
       <c r="BD45">
@@ -8673,8 +8692,8 @@
       <c r="I46">
         <v>0</v>
       </c>
-      <c r="J46">
-        <v>0</v>
+      <c r="J46" s="3">
+        <v>22</v>
       </c>
       <c r="K46" s="1">
         <v>1</v>
@@ -8808,7 +8827,7 @@
       <c r="BB46" s="1">
         <v>1</v>
       </c>
-      <c r="BC46">
+      <c r="BC46" s="5">
         <v>0</v>
       </c>
       <c r="BD46">

--- a/Base/TileMap/Formatting/Level4.xlsx
+++ b/Base/TileMap/Formatting/Level4.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Level4" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -864,10 +863,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BI56"/>
+  <dimension ref="A1:BE56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="BJ23" sqref="BJ23"/>
+      <selection activeCell="BI22" sqref="BI22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3176,16 +3175,16 @@
       <c r="Q14" s="5">
         <v>0</v>
       </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
+      <c r="R14" s="5">
+        <v>0</v>
+      </c>
+      <c r="S14" s="5">
+        <v>0</v>
+      </c>
+      <c r="T14" s="5">
+        <v>0</v>
+      </c>
+      <c r="U14" s="5">
         <v>0</v>
       </c>
       <c r="V14" s="5">
@@ -3230,16 +3229,16 @@
       <c r="AI14" s="5">
         <v>0</v>
       </c>
-      <c r="AJ14">
-        <v>0</v>
-      </c>
-      <c r="AK14">
-        <v>0</v>
-      </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
+      <c r="AJ14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="5">
         <v>0</v>
       </c>
       <c r="AN14" s="5">
@@ -3643,7 +3642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1</v>
       </c>
@@ -3816,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1</v>
       </c>
@@ -4162,7 +4161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1</v>
       </c>
@@ -4335,7 +4334,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>1</v>
       </c>
@@ -4508,7 +4507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1</v>
       </c>
@@ -4680,12 +4679,8 @@
       <c r="BE22" s="1">
         <v>1</v>
       </c>
-      <c r="BI22">
-        <f>51-4</f>
-        <v>47</v>
-      </c>
     </row>
-    <row r="23" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1</v>
       </c>
@@ -4858,7 +4853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1</v>
       </c>
@@ -5031,7 +5026,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1</v>
       </c>
@@ -5204,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1</v>
       </c>
@@ -5377,7 +5372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>1</v>
       </c>
@@ -5483,16 +5478,16 @@
       <c r="AI27" s="5">
         <v>0</v>
       </c>
-      <c r="AJ27">
-        <v>0</v>
-      </c>
-      <c r="AK27">
-        <v>0</v>
-      </c>
-      <c r="AL27">
-        <v>0</v>
-      </c>
-      <c r="AM27">
+      <c r="AJ27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL27" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM27" s="5">
         <v>0</v>
       </c>
       <c r="AN27" s="5">
@@ -5550,7 +5545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1</v>
       </c>
@@ -5723,7 +5718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1</v>
       </c>
@@ -5896,7 +5891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1</v>
       </c>
@@ -6069,7 +6064,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1</v>
       </c>
@@ -6242,7 +6237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:61" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:57" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1</v>
       </c>
@@ -7508,16 +7503,16 @@
       <c r="R39" s="5">
         <v>0</v>
       </c>
-      <c r="S39">
-        <v>0</v>
-      </c>
-      <c r="T39">
-        <v>0</v>
-      </c>
-      <c r="U39">
-        <v>0</v>
-      </c>
-      <c r="V39">
+      <c r="S39" s="5">
+        <v>0</v>
+      </c>
+      <c r="T39" s="5">
+        <v>0</v>
+      </c>
+      <c r="U39" s="5">
+        <v>0</v>
+      </c>
+      <c r="V39" s="5">
         <v>0</v>
       </c>
       <c r="W39" s="5">
@@ -7559,16 +7554,16 @@
       <c r="AI39" s="5">
         <v>0</v>
       </c>
-      <c r="AJ39">
-        <v>0</v>
-      </c>
-      <c r="AK39">
-        <v>0</v>
-      </c>
-      <c r="AL39">
-        <v>0</v>
-      </c>
-      <c r="AM39">
+      <c r="AJ39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="5">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="5">
         <v>0</v>
       </c>
       <c r="AN39" s="5">
